--- a/scripts/templates/Plantilla-Procedimientos.xlsx
+++ b/scripts/templates/Plantilla-Procedimientos.xlsx
@@ -21,11 +21,11 @@
   </sheets>
   <definedNames>
     <definedName name="AEATNoDisponibleEnClienteLigeroCLOUD">Servicios!$B$2:$B$7</definedName>
-    <definedName name="catastro">Servicios!$B$8:$B$12</definedName>
+    <definedName name="CATASTRO">Servicios!$B$8:$B$12</definedName>
     <definedName name="CCAA">Servicios!$B$13:$B$22</definedName>
-    <definedName name="cedente">Cedente!$A$2:$A$30</definedName>
-    <definedName name="cedentes">Cedente!$A$2:$A$30</definedName>
-    <definedName name="Cervantes">Servicios!$B$23</definedName>
+    <definedName name="cedente">Cedente!$A$2:$A$31</definedName>
+    <definedName name="cedentes">Cedente!$A$2:$A$31</definedName>
+    <definedName name="CERVANTES">Servicios!$B$23</definedName>
     <definedName name="CGNNOTARIADO">Servicios!$B$24:$B$27</definedName>
     <definedName name="Clase_tramite">'Tipo de procedimiento'!$A$2:$A$20</definedName>
     <definedName name="CORPME">Servicios!$C$29</definedName>
@@ -35,33 +35,34 @@
     <definedName name="DGSFP">Servicios!$B$48:$B$51</definedName>
     <definedName name="DGT">Servicios!$B$41:$B$47</definedName>
     <definedName name="DIRECCION">Servicios!$B$48:$B$51</definedName>
-    <definedName name="Educación">Servicios!$B$52:$B$63</definedName>
-    <definedName name="FOMENTO">Servicios!$B$64:$B$68</definedName>
+    <definedName name="EDUCACION">Servicios!$B$52:$B$63</definedName>
     <definedName name="IGAE">Servicios!$B$70:$B$73</definedName>
     <definedName name="IMSERSO">Servicios!$B$69</definedName>
     <definedName name="INE">Servicios!$B$74:$B$78</definedName>
     <definedName name="INSS">Servicios!$B$79:$B$80</definedName>
     <definedName name="INSSTarjetaSocialUniversalTSU">Servicios!#REF!</definedName>
-    <definedName name="Interior">Servicios!$B$81:$B$82</definedName>
-    <definedName name="JUSTICIA">Servicios!$B$83:$B$95</definedName>
-    <definedName name="MAEC">Servicios!$B$96</definedName>
-    <definedName name="MINECO">Servicios!$B$97:$B$100</definedName>
-    <definedName name="MPTFP">Servicios!$B$97:$B$100</definedName>
-    <definedName name="MUFACE">Servicios!$B$101:$B$106</definedName>
-    <definedName name="NAVARRA">Servicios!$B$107:$B$108</definedName>
-    <definedName name="PAISVASCO">Servicios!$B$109:$B$110</definedName>
-    <definedName name="SANIDAD">Servicios!$B$111</definedName>
-    <definedName name="SECAD">Servicios!$B$112</definedName>
-    <definedName name="SEPBLAC">Servicios!$B$113:$B$115</definedName>
-    <definedName name="SEPE">Servicios!$B$116:$B$120</definedName>
-    <definedName name="TGSS">Servicios!$B$121:$B$125</definedName>
+    <definedName name="INTERIOR">Servicios!$B$81:$B$82</definedName>
+    <definedName name="JUSTICIA">Servicios!$B$83:$B$96</definedName>
+    <definedName name="MAEC">Servicios!$B$97</definedName>
+    <definedName name="MINECO">Servicios!$B$98:$B$101</definedName>
+    <definedName name="MINHAP">Servicios!$B$102</definedName>
+    <definedName name="MITMA">Servicios!$B$64:$B$68</definedName>
+    <definedName name="MPTFP">Servicios!$B$98:$B$101</definedName>
+    <definedName name="MUFACE">Servicios!$B$103:$B$108</definedName>
+    <definedName name="NAVARRA">Servicios!$B$109:$B$110</definedName>
+    <definedName name="PAISVASCO">Servicios!$B$111:$B$113</definedName>
+    <definedName name="SANIDAD">Servicios!$B$114</definedName>
+    <definedName name="SECAD">Servicios!$B$115</definedName>
+    <definedName name="SEPBLAC">Servicios!$B$116:$B$118</definedName>
+    <definedName name="SEPE">Servicios!$B$119:$B$123</definedName>
+    <definedName name="TGSS">Servicios!$B$124:$B$128</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="633">
   <si>
     <t>Código del Procedimiento</t>
   </si>
@@ -717,9 +718,6 @@
   </si>
   <si>
     <t>NAVARRA</t>
-  </si>
-  <si>
-    <t>EDUCACIÓN</t>
   </si>
   <si>
     <t>CORPME</t>
@@ -2813,18 +2811,6 @@
     <t>(MAEC) Consulta de firmas para legalización diplomática de documentos públicos extranjeros</t>
   </si>
   <si>
-    <t>(MINHAP) Comunicación del cambio de domicilio</t>
-  </si>
-  <si>
-    <t>(MINHAP) Consulta de datos de residencia legal</t>
-  </si>
-  <si>
-    <t>(MINHAP) Consulta de si un ciudadano consta como inscrito en el Registro Central de Personal</t>
-  </si>
-  <si>
-    <t>(MINHAP) Consulta detallada sobre empleado público en Autentica</t>
-  </si>
-  <si>
     <t>(MUFACE) Certificado de datos de abonos</t>
   </si>
   <si>
@@ -3008,9 +2994,6 @@
     <t>SVDCONVIVENCIAWS01</t>
   </si>
   <si>
-    <t>FOMENTO</t>
-  </si>
-  <si>
     <t>Servicio de Consulta de los datos de una autorización de transporte</t>
   </si>
   <si>
@@ -3026,28 +3009,70 @@
     <t>Servicio de Consulta de los datos de un vehículo adscrito a una autorización de transporte</t>
   </si>
   <si>
-    <t>(Fomento) Servicio de Consulta de los datos de una autorización de transporte</t>
-  </si>
-  <si>
-    <t>(Fomento) Servicio de Consulta de los datos de una licencia internacional de transporte</t>
-  </si>
-  <si>
-    <t>(Fomento) Servicio de Consulta de las autorizaciones de transporte de un titular</t>
-  </si>
-  <si>
-    <t>(Fomento) Servicio de Consulta de los títulos de competencia profesional de un titular</t>
-  </si>
-  <si>
-    <t>(Fomento) Servicio de Consulta de los datos de un vehículo adscrito a una autorización de transporte</t>
-  </si>
-  <si>
-    <t>401CC0622F1BD1BE5B92214E809F184C</t>
-  </si>
-  <si>
-    <t>3.5.0</t>
-  </si>
-  <si>
-    <t>SCSP</t>
+    <t>Consulta de defunción masiva</t>
+  </si>
+  <si>
+    <t>SVDDEFMAWS01</t>
+  </si>
+  <si>
+    <t>(Justicia) Consulta de defunción masiva</t>
+  </si>
+  <si>
+    <t>Consulta de datos del Registro Oficial de Licitadores y Empresas Clasificadas del Sector Público</t>
+  </si>
+  <si>
+    <t>(MINHAP) Consulta de datos del Registro Oficial de Licitadores y Empresas Clasificadas del Sector Público</t>
+  </si>
+  <si>
+    <t>SVDMINHAFPROLECEWS01</t>
+  </si>
+  <si>
+    <t>MITMA</t>
+  </si>
+  <si>
+    <t>(MITMA) Servicio de Consulta de los datos de un vehículo adscrito a una autorización de transporte</t>
+  </si>
+  <si>
+    <t>(MITMA) Servicio de Consulta de los títulos de competencia profesional de un titular</t>
+  </si>
+  <si>
+    <t>(MITMA) Servicio de Consulta de las autorizaciones de transporte de un titular</t>
+  </si>
+  <si>
+    <t>(MITMA) Servicio de Consulta de los datos de una licencia internacional de transporte</t>
+  </si>
+  <si>
+    <t>(MITMA) Servicio de Consulta de los datos de una autorización de transporte</t>
+  </si>
+  <si>
+    <t>MINHAP</t>
+  </si>
+  <si>
+    <t>(MINECO) Consulta detallada sobre empleado público en Autentica</t>
+  </si>
+  <si>
+    <t>(MINECO) Consulta de si un ciudadano consta como inscrito en el Registro Central de Personal</t>
+  </si>
+  <si>
+    <t>(MINECO) Consulta de datos de residencia legal</t>
+  </si>
+  <si>
+    <t>(MINECO) Comunicación del cambio de domicilio</t>
+  </si>
+  <si>
+    <t>SVDPVASCODOMFISCWS01</t>
+  </si>
+  <si>
+    <t>Consulta de Domicilio Fiscal - PAÍS VASCO</t>
+  </si>
+  <si>
+    <t>(Pais Vasco) Consulta de Domicilio Fiscal</t>
+  </si>
+  <si>
+    <t>EDUCACION</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -3281,7 +3306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -3527,6 +3552,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3537,7 +3573,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3623,87 +3659,9 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3725,8 +3683,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4227,1100 +4257,1100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
-        <v>378</v>
-      </c>
-      <c r="B1" s="71"/>
+      <c r="A1" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="45"/>
       <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="C2" s="61"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="50"/>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="45" t="s">
+      <c r="C3" s="55"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="46"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="45" t="s">
+      <c r="C4" s="55"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="46"/>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="45" t="s">
+      <c r="C5" s="55"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="55"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="46"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="45" t="s">
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="55"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+    </row>
+    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="55"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="54" t="s">
+        <v>371</v>
+      </c>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" s="55"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+    </row>
+    <row r="15" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="61"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+    </row>
+    <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="46"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" s="46"/>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="46"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-    </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="46"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="45" t="s">
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="C19" s="55"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="55"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="57"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="57"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="57"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="57"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="57"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="57"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
+      <c r="B28" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="57"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="57"/>
+    </row>
+    <row r="30" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="C30" s="59"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="55"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="59"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="59"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="57"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" s="57"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="57"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" s="57"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="59"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="55"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="57"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" s="57"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="C42" s="57"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43" s="57"/>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="C44" s="57"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="55"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47" s="59"/>
+    </row>
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="59"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="C49" s="59"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="59"/>
+    </row>
+    <row r="51" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="C51" s="55"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51"/>
+      <c r="B53" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" s="55"/>
+    </row>
+    <row r="54" spans="1:3" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="53"/>
+      <c r="B54" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="C54" s="63"/>
+    </row>
+    <row r="55" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="C55" s="55"/>
+    </row>
+    <row r="56" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="55"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="51"/>
+      <c r="B58" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="C58" s="55"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="51"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="65"/>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="51"/>
+      <c r="B60" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="C60" s="55"/>
+    </row>
+    <row r="61" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="51"/>
+      <c r="B61" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="C61" s="55"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="51"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="55"/>
+    </row>
+    <row r="63" spans="1:3" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="C63" s="61"/>
+    </row>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="51"/>
+      <c r="B64" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="C64" s="57"/>
+    </row>
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="51"/>
+      <c r="B65" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="C65" s="57"/>
+    </row>
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="51"/>
+      <c r="B66" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="57"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="51"/>
+      <c r="B67" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" s="57"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="51"/>
+      <c r="B68" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C68" s="57"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="51"/>
+      <c r="B69" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="C69" s="55"/>
+    </row>
+    <row r="70" spans="1:3" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="53"/>
+      <c r="B70" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="C70" s="67"/>
+    </row>
+    <row r="71" spans="1:3" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="B71" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="C71" s="55"/>
+    </row>
+    <row r="72" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="C72" s="69"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="55"/>
+    </row>
+    <row r="74" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="47"/>
+      <c r="B74" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C12" s="46"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="45" t="s">
-        <v>369</v>
-      </c>
-      <c r="C13" s="46"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-    </row>
-    <row r="15" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="50"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-    </row>
-    <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="46"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="C19" s="46"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="46"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22" s="56"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" s="56"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="C24" s="56"/>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="C25" s="56"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="C26" s="56"/>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="C27" s="56"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="C28" s="56"/>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" s="56"/>
-    </row>
-    <row r="30" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="53" t="s">
-        <v>368</v>
-      </c>
-      <c r="C30" s="54"/>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="C31" s="46"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="C32" s="54"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="C33" s="54"/>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
-      <c r="B34" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="C34" s="56"/>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="C35" s="56"/>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="C36" s="56"/>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="C37" s="56"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="C39" s="46"/>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C40" s="56"/>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="C41" s="56"/>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="C42" s="56"/>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="C43" s="56"/>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
-      <c r="B44" s="55" t="s">
-        <v>367</v>
-      </c>
-      <c r="C44" s="56"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="54"/>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="C46" s="46"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
-      <c r="B47" s="53" t="s">
-        <v>254</v>
-      </c>
-      <c r="C47" s="54"/>
-    </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="54"/>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="C49" s="54"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="54"/>
-    </row>
-    <row r="51" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="45" t="s">
-        <v>345</v>
-      </c>
-      <c r="C51" s="46"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="C53" s="46"/>
-    </row>
-    <row r="54" spans="1:3" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="69"/>
-      <c r="B54" s="65" t="s">
-        <v>602</v>
-      </c>
-      <c r="C54" s="66"/>
-    </row>
-    <row r="55" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>308</v>
-      </c>
-      <c r="C55" s="46"/>
-    </row>
-    <row r="56" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
-      <c r="B56" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="C56" s="46"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="C58" s="46"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="62"/>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
-      <c r="B60" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="C60" s="46"/>
-    </row>
-    <row r="61" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
-      <c r="B61" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="C61" s="46"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="67"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="46"/>
-    </row>
-    <row r="63" spans="1:3" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="C63" s="50"/>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="B64" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="C64" s="56"/>
-    </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
-      <c r="B65" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="C65" s="56"/>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="67"/>
-      <c r="B66" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="C66" s="56"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
-      <c r="B67" s="55" t="s">
+      <c r="C74" s="55"/>
+    </row>
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="47"/>
+      <c r="B75" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="C67" s="56"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
-      <c r="B68" s="55" t="s">
+      <c r="C75" s="55"/>
+    </row>
+    <row r="76" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="47"/>
+      <c r="B76" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76" s="57"/>
+    </row>
+    <row r="77" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="47"/>
+      <c r="B77" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="C77" s="57"/>
+    </row>
+    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="47"/>
+      <c r="B78" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78" s="57"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="47"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="55"/>
+    </row>
+    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="47"/>
+      <c r="B80" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="C68" s="56"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
-      <c r="B69" s="45" t="s">
-        <v>371</v>
-      </c>
-      <c r="C69" s="46"/>
-    </row>
-    <row r="70" spans="1:3" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="69"/>
-      <c r="B70" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="C70" s="48"/>
-    </row>
-    <row r="71" spans="1:3" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="B71" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="C71" s="46"/>
-    </row>
-    <row r="72" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="73"/>
-      <c r="B72" s="63" t="s">
-        <v>347</v>
-      </c>
-      <c r="C72" s="64"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="73"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="46"/>
-    </row>
-    <row r="74" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="73"/>
-      <c r="B74" s="45" t="s">
+      <c r="C80" s="55"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="47"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="55"/>
+    </row>
+    <row r="82" spans="1:3" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="48"/>
+      <c r="B82" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="C82" s="67"/>
+    </row>
+    <row r="83" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="C83" s="55"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="55"/>
+    </row>
+    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="51"/>
+      <c r="B85" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="C85" s="55"/>
+    </row>
+    <row r="86" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="C86" s="55"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="55"/>
+    </row>
+    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" s="55"/>
+    </row>
+    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="C89" s="57"/>
+    </row>
+    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="51"/>
+      <c r="B90" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C90" s="57"/>
+    </row>
+    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C91" s="57"/>
+    </row>
+    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="C92" s="57"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="55"/>
+    </row>
+    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="55"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="51"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="55"/>
+    </row>
+    <row r="96" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="51"/>
+      <c r="B96" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96" s="71"/>
+    </row>
+    <row r="97" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="51"/>
+      <c r="B97" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="C97" s="71"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="51"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="71"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="51"/>
+      <c r="B99" s="70" t="s">
+        <v>321</v>
+      </c>
+      <c r="C99" s="71"/>
+    </row>
+    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="51"/>
+      <c r="B100" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="C100" s="73"/>
+    </row>
+    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="51"/>
+      <c r="B101" s="72" t="s">
+        <v>322</v>
+      </c>
+      <c r="C101" s="73"/>
+    </row>
+    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="51"/>
+      <c r="B102" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102" s="73"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="51"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="55"/>
+    </row>
+    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="51"/>
+      <c r="B104" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="C104" s="55"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="51"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="55"/>
+    </row>
+    <row r="106" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="51"/>
+      <c r="B106" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" s="55"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="51"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="55"/>
+    </row>
+    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="51"/>
+      <c r="B108" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" s="55"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="51"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="55"/>
+    </row>
+    <row r="110" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="51"/>
+      <c r="B110" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="C110" s="55"/>
+    </row>
+    <row r="111" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="51"/>
+      <c r="B111" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="C111" s="57"/>
+    </row>
+    <row r="112" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="51"/>
+      <c r="B112" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C112" s="57"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="51"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="55"/>
+    </row>
+    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="51"/>
+      <c r="B114" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C114" s="55"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="51"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="55"/>
+    </row>
+    <row r="116" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="51"/>
+      <c r="B116" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" s="55"/>
+    </row>
+    <row r="117" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="51"/>
+      <c r="B117" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="C117" s="55"/>
+    </row>
+    <row r="118" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="C118" s="61"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="51"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="55"/>
+    </row>
+    <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="51"/>
+      <c r="B120" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="C120" s="55"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="51"/>
+      <c r="B121" s="54"/>
+      <c r="C121" s="55"/>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="53"/>
+      <c r="B122" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C122" s="67"/>
+    </row>
+    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="C123" s="55"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="51"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="55"/>
+    </row>
+    <row r="125" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="51"/>
+      <c r="B125" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="C74" s="46"/>
-    </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="73"/>
-      <c r="B75" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="C75" s="46"/>
-    </row>
-    <row r="76" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="73"/>
-      <c r="B76" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="C76" s="56"/>
-    </row>
-    <row r="77" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="73"/>
-      <c r="B77" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="C77" s="56"/>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="73"/>
-      <c r="B78" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="C78" s="56"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="73"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="46"/>
-    </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="73"/>
-      <c r="B80" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="C80" s="46"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="73"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="46"/>
-    </row>
-    <row r="82" spans="1:3" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="74"/>
-      <c r="B82" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" s="48"/>
-    </row>
-    <row r="83" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="B83" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="C83" s="46"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="46"/>
-    </row>
-    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="67"/>
-      <c r="B85" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="C85" s="46"/>
-    </row>
-    <row r="86" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
-      <c r="B86" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="C86" s="46"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="46"/>
-    </row>
-    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="67"/>
-      <c r="B88" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="C88" s="46"/>
-    </row>
-    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="67"/>
-      <c r="B89" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="C89" s="56"/>
-    </row>
-    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="67"/>
-      <c r="B90" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="C90" s="56"/>
-    </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="67"/>
-      <c r="B91" s="55" t="s">
-        <v>319</v>
-      </c>
-      <c r="C91" s="56"/>
-    </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="67"/>
-      <c r="B92" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="C92" s="56"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="67"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="46"/>
-    </row>
-    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="67"/>
-      <c r="B94" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="C94" s="46"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="67"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="46"/>
-    </row>
-    <row r="96" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="67"/>
-      <c r="B96" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="C96" s="60"/>
-    </row>
-    <row r="97" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="67"/>
-      <c r="B97" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="C97" s="60"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="67"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="60"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="67"/>
-      <c r="B99" s="59" t="s">
-        <v>322</v>
-      </c>
-      <c r="C99" s="60"/>
-    </row>
-    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="67"/>
-      <c r="B100" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="C100" s="58"/>
-    </row>
-    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
-      <c r="B101" s="57" t="s">
-        <v>323</v>
-      </c>
-      <c r="C101" s="58"/>
-    </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="67"/>
-      <c r="B102" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="C102" s="58"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="67"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="46"/>
-    </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="67"/>
-      <c r="B104" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="C104" s="46"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="46"/>
-    </row>
-    <row r="106" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="67"/>
-      <c r="B106" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="C106" s="46"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="67"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="46"/>
-    </row>
-    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="67"/>
-      <c r="B108" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="C108" s="46"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="67"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="46"/>
-    </row>
-    <row r="110" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
-      <c r="B110" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="C110" s="46"/>
-    </row>
-    <row r="111" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
-      <c r="B111" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="C111" s="56"/>
-    </row>
-    <row r="112" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
-      <c r="B112" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="C112" s="56"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
-      <c r="B113" s="45"/>
-      <c r="C113" s="46"/>
-    </row>
-    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="67"/>
-      <c r="B114" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="C114" s="46"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="67"/>
-      <c r="B115" s="45"/>
-      <c r="C115" s="46"/>
-    </row>
-    <row r="116" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="67"/>
-      <c r="B116" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C116" s="46"/>
-    </row>
-    <row r="117" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="67"/>
-      <c r="B117" s="45" t="s">
-        <v>326</v>
-      </c>
-      <c r="C117" s="46"/>
-    </row>
-    <row r="118" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="B118" s="49" t="s">
-        <v>278</v>
-      </c>
-      <c r="C118" s="50"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="67"/>
-      <c r="B119" s="45"/>
-      <c r="C119" s="46"/>
-    </row>
-    <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="67"/>
-      <c r="B120" s="45" t="s">
+      <c r="C125" s="59"/>
+    </row>
+    <row r="126" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="51"/>
+      <c r="B126" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="C126" s="59"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="51"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="55"/>
+    </row>
+    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="51"/>
+      <c r="B128" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C128" s="55"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="51"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="55"/>
+    </row>
+    <row r="130" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="51"/>
+      <c r="B130" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="C130" s="55"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="51"/>
+      <c r="B131" s="54"/>
+      <c r="C131" s="55"/>
+    </row>
+    <row r="132" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="51"/>
+      <c r="B132" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="C132" s="55"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="51"/>
+      <c r="B133" s="54"/>
+      <c r="C133" s="55"/>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="51"/>
+      <c r="B134" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="C134" s="55"/>
+    </row>
+    <row r="135" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B135" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="C135" s="61"/>
+    </row>
+    <row r="136" spans="1:3" s="15" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="51"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="55"/>
+    </row>
+    <row r="137" spans="1:3" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="51"/>
+      <c r="B137" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="C137" s="55"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="51"/>
+      <c r="B138" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="C138" s="55"/>
+    </row>
+    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="51"/>
+      <c r="B139" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="C139" s="55"/>
+    </row>
+    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="51"/>
+      <c r="B140" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="C140" s="55"/>
+    </row>
+    <row r="141" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="51"/>
+      <c r="B141" s="54"/>
+      <c r="C141" s="55"/>
+    </row>
+    <row r="142" spans="1:3" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="51"/>
+      <c r="B142" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="C142" s="55"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="51"/>
+      <c r="B143" s="54"/>
+      <c r="C143" s="55"/>
+    </row>
+    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="51"/>
+      <c r="B144" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="C120" s="46"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="67"/>
-      <c r="B121" s="45"/>
-      <c r="C121" s="46"/>
-    </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="69"/>
-      <c r="B122" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="C122" s="48"/>
-    </row>
-    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="C123" s="46"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="67"/>
-      <c r="B124" s="45"/>
-      <c r="C124" s="46"/>
-    </row>
-    <row r="125" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="67"/>
-      <c r="B125" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="C125" s="54"/>
-    </row>
-    <row r="126" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="67"/>
-      <c r="B126" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="C126" s="54"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="67"/>
-      <c r="B127" s="45"/>
-      <c r="C127" s="46"/>
-    </row>
-    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="67"/>
-      <c r="B128" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="C128" s="46"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="67"/>
-      <c r="B129" s="45"/>
-      <c r="C129" s="46"/>
-    </row>
-    <row r="130" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="67"/>
-      <c r="B130" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="C130" s="46"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="67"/>
-      <c r="B131" s="45"/>
-      <c r="C131" s="46"/>
-    </row>
-    <row r="132" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="67"/>
-      <c r="B132" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="C132" s="46"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
-      <c r="B133" s="45"/>
-      <c r="C133" s="46"/>
-    </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="67"/>
-      <c r="B134" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="C134" s="46"/>
-    </row>
-    <row r="135" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="68" t="s">
-        <v>294</v>
-      </c>
-      <c r="B135" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="C135" s="50"/>
-    </row>
-    <row r="136" spans="1:3" s="15" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="46"/>
-    </row>
-    <row r="137" spans="1:3" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="67"/>
-      <c r="B137" s="45" t="s">
+      <c r="C144" s="55"/>
+    </row>
+    <row r="145" spans="1:3" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="53"/>
+      <c r="B145" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="C137" s="46"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="67"/>
-      <c r="B138" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="C138" s="46"/>
-    </row>
-    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="67"/>
-      <c r="B139" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="C139" s="46"/>
-    </row>
-    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
-      <c r="B140" s="45" t="s">
+      <c r="C145" s="67"/>
+    </row>
+    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B146" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="C140" s="46"/>
-    </row>
-    <row r="141" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="67"/>
-      <c r="B141" s="45"/>
-      <c r="C141" s="46"/>
-    </row>
-    <row r="142" spans="1:3" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="67"/>
-      <c r="B142" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="C142" s="46"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="67"/>
-      <c r="B143" s="45"/>
-      <c r="C143" s="46"/>
-    </row>
-    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="67"/>
-      <c r="B144" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="C144" s="46"/>
-    </row>
-    <row r="145" spans="1:3" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="69"/>
-      <c r="B145" s="47" t="s">
+      <c r="C146" s="55"/>
+    </row>
+    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="51"/>
+      <c r="B147" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="C147" s="55"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="51"/>
+      <c r="B148" s="54"/>
+      <c r="C148" s="55"/>
+    </row>
+    <row r="149" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="51"/>
+      <c r="B149" s="54" t="s">
         <v>333</v>
       </c>
-      <c r="C145" s="48"/>
-    </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="B146" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C146" s="46"/>
-    </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="67"/>
-      <c r="B147" s="45" t="s">
+      <c r="C149" s="55"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="51"/>
+      <c r="B150" s="54"/>
+      <c r="C150" s="55"/>
+    </row>
+    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="51"/>
+      <c r="B151" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="C151" s="55"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="51"/>
+      <c r="B152" s="54"/>
+      <c r="C152" s="55"/>
+    </row>
+    <row r="153" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="51"/>
+      <c r="B153" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C153" s="55"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="51"/>
+      <c r="B154" s="54"/>
+      <c r="C154" s="55"/>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="51"/>
+      <c r="B155" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="C155" s="55"/>
+    </row>
+    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="B156" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="C156" s="61"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="51"/>
+      <c r="B157" s="54"/>
+      <c r="C157" s="55"/>
+    </row>
+    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="51"/>
+      <c r="B158" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="C158" s="55"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="51"/>
+      <c r="B159" s="74"/>
+      <c r="C159" s="75"/>
+    </row>
+    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="51"/>
+      <c r="B160" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="C147" s="46"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="67"/>
-      <c r="B148" s="45"/>
-      <c r="C148" s="46"/>
-    </row>
-    <row r="149" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="67"/>
-      <c r="B149" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="C149" s="46"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="67"/>
-      <c r="B150" s="45"/>
-      <c r="C150" s="46"/>
-    </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="67"/>
-      <c r="B151" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="C151" s="46"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="67"/>
-      <c r="B152" s="45"/>
-      <c r="C152" s="46"/>
-    </row>
-    <row r="153" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="67"/>
-      <c r="B153" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="C153" s="46"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="67"/>
-      <c r="B154" s="45"/>
-      <c r="C154" s="46"/>
-    </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="67"/>
-      <c r="B155" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C155" s="46"/>
-    </row>
-    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="68" t="s">
-        <v>337</v>
-      </c>
-      <c r="B156" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="C156" s="50"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="67"/>
-      <c r="B157" s="45"/>
-      <c r="C157" s="46"/>
-    </row>
-    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="67"/>
-      <c r="B158" s="45" t="s">
+      <c r="C160" s="55"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="51"/>
+      <c r="B161" s="54"/>
+      <c r="C161" s="55"/>
+    </row>
+    <row r="162" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="53"/>
+      <c r="B162" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="C162" s="67"/>
+    </row>
+    <row r="163" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B163" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="C158" s="46"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="67"/>
-      <c r="B159" s="51"/>
-      <c r="C159" s="52"/>
-    </row>
-    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="67"/>
-      <c r="B160" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="C160" s="46"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="67"/>
-      <c r="B161" s="45"/>
-      <c r="C161" s="46"/>
-    </row>
-    <row r="162" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="69"/>
-      <c r="B162" s="47" t="s">
+      <c r="C163" s="55"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="51"/>
+      <c r="B164" s="54"/>
+      <c r="C164" s="55"/>
+    </row>
+    <row r="165" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="51"/>
+      <c r="B165" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="C162" s="48"/>
-    </row>
-    <row r="163" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="B163" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="C163" s="46"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="67"/>
-      <c r="B164" s="45"/>
-      <c r="C164" s="46"/>
-    </row>
-    <row r="165" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="67"/>
-      <c r="B165" s="45" t="s">
+      <c r="C165" s="55"/>
+    </row>
+    <row r="166" spans="1:14" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="53"/>
+      <c r="B166" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="C165" s="46"/>
-    </row>
-    <row r="166" spans="1:14" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="69"/>
-      <c r="B166" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="C166" s="48"/>
+      <c r="C166" s="67"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
@@ -5342,7 +5372,7 @@
         <v>33</v>
       </c>
       <c r="G169" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H169" s="25" t="s">
         <v>33</v>
@@ -5411,10 +5441,10 @@
       </c>
     </row>
     <row r="171" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="75" t="s">
+      <c r="A171" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B171" s="76"/>
+      <c r="B171" s="50"/>
       <c r="C171" s="26"/>
       <c r="D171" s="26"/>
       <c r="E171" s="26"/>
@@ -5448,7 +5478,7 @@
         <v>9</v>
       </c>
       <c r="G172" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H172" s="28" t="s">
         <v>4</v>
@@ -5466,7 +5496,7 @@
         <v>8</v>
       </c>
       <c r="M172" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N172" s="28" t="s">
         <v>41</v>
@@ -5477,7 +5507,7 @@
         <v>51</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C173" s="30" t="s">
         <v>60</v>
@@ -5492,13 +5522,13 @@
         <v>21</v>
       </c>
       <c r="G173" s="30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H173" s="30" t="s">
         <v>53</v>
       </c>
       <c r="I173" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J173" s="31" t="s">
         <v>54</v>
@@ -5507,7 +5537,7 @@
         <v>55</v>
       </c>
       <c r="L173" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M173" s="30" t="s">
         <v>56</v>
@@ -5518,6 +5548,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A146:A155"/>
+    <mergeCell ref="A156:A162"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A135:A145"/>
+    <mergeCell ref="A15:A54"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="A63:A70"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A71:A82"/>
     <mergeCell ref="A171:B171"/>
@@ -5542,161 +5727,6 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A146:A155"/>
-    <mergeCell ref="A156:A162"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A135:A145"/>
-    <mergeCell ref="A15:A54"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="A63:A70"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J173" r:id="rId1"/>
@@ -5715,7 +5745,7 @@
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5735,7 +5765,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>43</v>
@@ -5755,22 +5785,10 @@
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>632</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5793,7 +5811,7 @@
         <v>158</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>158</v>
@@ -5852,7 +5870,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>39</v>
@@ -5878,7 +5896,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>3</v>
@@ -5893,13 +5911,13 @@
         <v>160</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N6" s="13" t="s">
         <v>163</v>
@@ -5907,7 +5925,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
-      <c r="B7" s="77"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -5923,7 +5941,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
-      <c r="B8" s="77"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -5939,7 +5957,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
-      <c r="B9" s="77"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -5955,7 +5973,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="77"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -5971,7 +5989,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
-      <c r="B11" s="77"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -5987,7 +6005,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="77"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -6003,7 +6021,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="77"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -6019,7 +6037,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="77"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -6035,7 +6053,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="77"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -6051,7 +6069,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="77"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -6067,7 +6085,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="77"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -6083,7 +6101,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="B18" s="77"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -6099,7 +6117,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
-      <c r="B19" s="77"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -6115,7 +6133,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="77"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -6131,7 +6149,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
-      <c r="B21" s="77"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -6147,7 +6165,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
-      <c r="B22" s="77"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -6163,7 +6181,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
-      <c r="B23" s="77"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -6179,7 +6197,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
-      <c r="B24" s="77"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -6195,7 +6213,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
-      <c r="B25" s="77"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -6211,7 +6229,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="77"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -6227,7 +6245,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
-      <c r="B27" s="77"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -6243,7 +6261,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
-      <c r="B28" s="77"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -6259,7 +6277,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
-      <c r="B29" s="77"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -7077,7 +7095,7 @@
         <v>158</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>158</v>
@@ -7136,7 +7154,7 @@
         <v>35</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>39</v>
@@ -7185,7 +7203,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7195,7 +7215,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -7206,7 +7226,7 @@
         <v>203</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7214,7 +7234,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7238,7 +7258,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7246,15 +7266,15 @@
         <v>16</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>226</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7262,7 +7282,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7270,7 +7290,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7278,7 +7298,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7286,7 +7306,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7294,7 +7314,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7302,7 +7322,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7318,7 +7338,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7326,7 +7346,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7334,7 +7354,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7342,7 +7362,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7350,7 +7370,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -7361,10 +7381,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B68" sqref="B64:B68"/>
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7394,10 +7414,10 @@
         <v>173</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>64</v>
@@ -7408,10 +7428,10 @@
         <v>173</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>68</v>
@@ -7422,10 +7442,10 @@
         <v>173</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>65</v>
@@ -7436,10 +7456,10 @@
         <v>173</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>66</v>
@@ -7450,10 +7470,10 @@
         <v>173</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>67</v>
@@ -7464,10 +7484,10 @@
         <v>173</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>94</v>
@@ -7478,10 +7498,10 @@
         <v>213</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>69</v>
@@ -7492,10 +7512,10 @@
         <v>213</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>70</v>
@@ -7506,10 +7526,10 @@
         <v>213</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>71</v>
@@ -7520,10 +7540,10 @@
         <v>213</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>72</v>
@@ -7537,7 +7557,7 @@
         <v>73</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>74</v>
@@ -7548,10 +7568,10 @@
         <v>75</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>78</v>
@@ -7562,10 +7582,10 @@
         <v>75</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>77</v>
@@ -7576,10 +7596,10 @@
         <v>75</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>80</v>
@@ -7590,10 +7610,10 @@
         <v>75</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>76</v>
@@ -7604,10 +7624,10 @@
         <v>75</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>79</v>
@@ -7621,7 +7641,7 @@
         <v>198</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>199</v>
@@ -7632,10 +7652,10 @@
         <v>75</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>200</v>
@@ -7646,10 +7666,10 @@
         <v>75</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>183</v>
@@ -7660,10 +7680,10 @@
         <v>75</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>201</v>
@@ -7674,24 +7694,24 @@
         <v>75</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>103</v>
@@ -7699,13 +7719,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>125</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>126</v>
@@ -7713,7 +7733,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>127</v>
@@ -7727,13 +7747,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>130</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>131</v>
@@ -7741,13 +7761,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D27" s="34" t="s">
         <v>132</v>
@@ -7758,10 +7778,10 @@
         <v>81</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D28" s="34" t="s">
         <v>190</v>
@@ -7769,16 +7789,16 @@
     </row>
     <row r="29" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="D29" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -7786,10 +7806,10 @@
         <v>176</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>177</v>
@@ -7800,10 +7820,10 @@
         <v>176</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D31" s="34" t="s">
         <v>178</v>
@@ -7814,10 +7834,10 @@
         <v>176</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>179</v>
@@ -7828,10 +7848,10 @@
         <v>176</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D33" s="34" t="s">
         <v>180</v>
@@ -7842,10 +7862,10 @@
         <v>176</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>181</v>
@@ -7856,10 +7876,10 @@
         <v>176</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D35" s="34" t="s">
         <v>182</v>
@@ -7870,10 +7890,10 @@
         <v>176</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>189</v>
@@ -7884,13 +7904,13 @@
         <v>176</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -7898,10 +7918,10 @@
         <v>82</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>83</v>
@@ -7912,10 +7932,10 @@
         <v>82</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D39" s="34" t="s">
         <v>84</v>
@@ -7926,122 +7946,122 @@
         <v>82</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D40" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="D40" s="34" t="s">
-        <v>484</v>
-      </c>
     </row>
     <row r="41" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>419</v>
+      <c r="B41" s="42" t="s">
+        <v>418</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>421</v>
-      </c>
       <c r="C43" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D43" s="34" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="43" t="s">
-        <v>422</v>
+      <c r="B44" s="42" t="s">
+        <v>421</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D44" s="34" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="43" t="s">
-        <v>423</v>
+      <c r="B45" s="42" t="s">
+        <v>422</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D45" s="34" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="43" t="s">
-        <v>424</v>
+      <c r="B46" s="42" t="s">
+        <v>423</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D46" s="34" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="43" t="s">
-        <v>603</v>
+      <c r="B47" s="42" t="s">
+        <v>598</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D48" s="34" t="s">
         <v>134</v>
@@ -8049,13 +8069,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B49" s="34" t="s">
         <v>135</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D49" s="34" t="s">
         <v>136</v>
@@ -8063,13 +8083,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B50" s="34" t="s">
         <v>137</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D50" s="34" t="s">
         <v>138</v>
@@ -8077,13 +8097,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D51" s="34" t="s">
         <v>139</v>
@@ -8091,13 +8111,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
       <c r="B52" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D52" s="34" t="s">
         <v>87</v>
@@ -8105,13 +8125,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D53" s="34" t="s">
         <v>88</v>
@@ -8119,13 +8139,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
       <c r="B54" s="34" t="s">
         <v>89</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D54" s="34" t="s">
         <v>90</v>
@@ -8133,13 +8153,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D55" s="34" t="s">
         <v>91</v>
@@ -8147,13 +8167,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="39" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
       <c r="B56" s="34" t="s">
         <v>92</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D56" s="34" t="s">
         <v>93</v>
@@ -8161,13 +8181,13 @@
     </row>
     <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="39" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D57" s="34" t="s">
         <v>185</v>
@@ -8175,13 +8195,13 @@
     </row>
     <row r="58" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="39" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D58" s="34" t="s">
         <v>184</v>
@@ -8189,10 +8209,10 @@
     </row>
     <row r="59" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="39" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>206</v>
@@ -8203,13 +8223,13 @@
     </row>
     <row r="60" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D60" s="34" t="s">
         <v>208</v>
@@ -8217,13 +8237,13 @@
     </row>
     <row r="61" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="39" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D61" s="34" t="s">
         <v>209</v>
@@ -8231,13 +8251,13 @@
     </row>
     <row r="62" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D62" s="34" t="s">
         <v>210</v>
@@ -8245,10 +8265,10 @@
     </row>
     <row r="63" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="39" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>211</v>
@@ -8259,61 +8279,61 @@
     </row>
     <row r="64" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="D64" s="34"/>
     </row>
     <row r="65" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="39" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D65" s="34"/>
     </row>
     <row r="66" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="39" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D66" s="34"/>
     </row>
     <row r="67" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D67" s="34"/>
     </row>
     <row r="68" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D68" s="34"/>
     </row>
@@ -8322,10 +8342,10 @@
         <v>95</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D69" s="34" t="s">
         <v>96</v>
@@ -8336,10 +8356,10 @@
         <v>174</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D70" s="34" t="s">
         <v>170</v>
@@ -8350,10 +8370,10 @@
         <v>174</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D71" s="34" t="s">
         <v>171</v>
@@ -8364,10 +8384,10 @@
         <v>174</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D72" s="34" t="s">
         <v>172</v>
@@ -8378,13 +8398,13 @@
         <v>174</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D73" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -8395,7 +8415,7 @@
         <v>99</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D74" s="34" t="s">
         <v>100</v>
@@ -8406,13 +8426,13 @@
         <v>97</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -8420,10 +8440,10 @@
         <v>97</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D76" s="34" t="s">
         <v>98</v>
@@ -8434,13 +8454,13 @@
         <v>97</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -8448,13 +8468,13 @@
         <v>97</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D78" s="34" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -8462,10 +8482,10 @@
         <v>101</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D79" s="34" t="s">
         <v>102</v>
@@ -8476,10 +8496,10 @@
         <v>101</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D80" s="34" t="s">
         <v>186</v>
@@ -8490,10 +8510,10 @@
         <v>215</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D81" s="34" t="s">
         <v>205</v>
@@ -8504,10 +8524,10 @@
         <v>215</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D82" s="34" t="s">
         <v>204</v>
@@ -8518,13 +8538,13 @@
         <v>60</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D83" s="34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -8532,10 +8552,10 @@
         <v>60</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D84" s="34" t="s">
         <v>105</v>
@@ -8546,41 +8566,41 @@
         <v>60</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D85" s="34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="39" t="s">
         <v>60</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>449</v>
+        <v>611</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>166</v>
+        <v>613</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="39" t="s">
         <v>60</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -8588,13 +8608,13 @@
         <v>60</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D88" s="34" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -8602,195 +8622,195 @@
         <v>60</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D89" s="34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="36" t="s">
-        <v>453</v>
+      <c r="B90" s="34" t="s">
+        <v>451</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="D90" s="36" t="s">
-        <v>485</v>
+        <v>165</v>
+      </c>
+      <c r="D90" s="34" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B91" s="35" t="s">
-        <v>454</v>
+      <c r="B91" s="36" t="s">
+        <v>452</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="D91" s="35" t="s">
-        <v>486</v>
+      <c r="D91" s="36" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B92" s="36" t="s">
-        <v>455</v>
+      <c r="B92" s="35" t="s">
+        <v>453</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="D92" s="36" t="s">
-        <v>488</v>
+        <v>559</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B93" s="35" t="s">
-        <v>456</v>
+      <c r="B93" s="36" t="s">
+        <v>454</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="D93" s="35" t="s">
-        <v>490</v>
+        <v>486</v>
+      </c>
+      <c r="D93" s="36" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B94" s="36" t="s">
-        <v>457</v>
+      <c r="B94" s="35" t="s">
+        <v>455</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D94" s="36" t="s">
-        <v>492</v>
+        <v>488</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B95" s="35" t="s">
-        <v>458</v>
+      <c r="B95" s="36" t="s">
+        <v>456</v>
       </c>
       <c r="C95" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="D95" s="36" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D96" s="35" t="s">
         <v>493</v>
-      </c>
-      <c r="D95" s="35" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B96" s="34" t="s">
-        <v>459</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="D96" s="34" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="39" t="s">
-        <v>601</v>
+        <v>110</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D97" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="39" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>113</v>
+        <v>459</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="D98" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="39" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B99" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="D99" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="B100" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="D99" s="34" t="s">
+      <c r="C100" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="D100" s="34" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="39" t="s">
-        <v>601</v>
-      </c>
-      <c r="B100" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D100" s="34" t="s">
+    <row r="101" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="D101" s="34" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B101" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="D101" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="39" t="s">
-        <v>117</v>
+        <v>623</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>463</v>
+        <v>614</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>569</v>
+        <v>615</v>
       </c>
       <c r="D102" s="34" t="s">
-        <v>119</v>
+        <v>616</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -8798,13 +8818,13 @@
         <v>117</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D103" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -8812,13 +8832,13 @@
         <v>117</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -8826,13 +8846,13 @@
         <v>117</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D105" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -8840,181 +8860,181 @@
         <v>117</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D106" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="39" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="39" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="B108" s="34" t="s">
-        <v>381</v>
+        <v>466</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D108" s="34" t="s">
-        <v>380</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="39" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="D109" s="34" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="B110" s="34" t="s">
-        <v>599</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="D110" s="34" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="39" t="s">
+      <c r="B111" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B112" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="34" t="s">
+        <v>629</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D114" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="B111" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="D111" s="34" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="39" t="s">
+    </row>
+    <row r="115" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="B112" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="C112" s="9" t="s">
+      <c r="B115" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="D115" s="34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="D112" s="34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="39" t="s">
+      <c r="D116" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B113" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="D113" s="34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="39" t="s">
+      <c r="B117" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="D117" s="34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B114" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="D114" s="34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B115" s="34" t="s">
+      <c r="B118" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C115" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="D115" s="34" t="s">
+      <c r="C118" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="D118" s="34" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B116" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="D116" s="34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B117" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="D117" s="34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B118" s="34" t="s">
-        <v>476</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="D118" s="34" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -9022,13 +9042,13 @@
         <v>57</v>
       </c>
       <c r="B119" s="34" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -9036,93 +9056,135 @@
         <v>57</v>
       </c>
       <c r="B120" s="34" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D120" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="D121" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D122" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="D123" s="34" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B121" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="D121" s="34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B122" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="D122" s="34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B123" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="D123" s="34" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="39" t="s">
         <v>151</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>480</v>
+        <v>152</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D124" s="34" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="39" t="s">
         <v>151</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>481</v>
+        <v>154</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D125" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B126" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D126" s="34" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B127" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D127" s="34" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B128" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="D128" s="34" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="16"/>
-    </row>
-    <row r="128" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="16"/>
     </row>
     <row r="129" spans="1:1" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
+    </row>
+    <row r="131" spans="1:1" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="16"/>
+    </row>
+    <row r="132" spans="1:1" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="16"/>
     </row>
   </sheetData>
   <dataConsolidate function="stdDev"/>
@@ -9134,10 +9196,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:BC37"/>
+  <dimension ref="A1:BC38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9159,6 +9221,9 @@
       <c r="A2" s="17" t="s">
         <v>175</v>
       </c>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -9182,7 +9247,7 @@
     </row>
     <row r="5" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
@@ -9190,7 +9255,7 @@
     </row>
     <row r="6" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
@@ -9198,7 +9263,7 @@
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
@@ -9226,37 +9291,37 @@
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:55" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>611</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="s">
         <v>11</v>
@@ -9264,12 +9329,12 @@
     </row>
     <row r="18" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>101</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="BB19" t="s">
         <v>13</v>
@@ -9277,15 +9342,15 @@
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="BB20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>110</v>
+      <c r="A21" s="39" t="s">
+        <v>596</v>
       </c>
       <c r="BB21" t="s">
         <v>16</v>
@@ -9293,96 +9358,101 @@
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="BB22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>17</v>
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="BB24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="BB25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>382</v>
+        <v>214</v>
       </c>
       <c r="BB26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>191</v>
+        <v>381</v>
       </c>
       <c r="BB27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="BB28" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="BB29" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="BB30" t="s">
+      <c r="BB31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="BB31" t="s">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="BB32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="BB32" t="s">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="15"/>
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C38" s="15"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A37">
-    <sortCondition ref="A2:A37"/>
+  <sortState ref="A2:A31">
+    <sortCondition ref="A2"/>
   </sortState>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9409,17 +9479,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/templates/Plantilla-Procedimientos.xlsx
+++ b/scripts/templates/Plantilla-Procedimientos.xlsx
@@ -5,14 +5,14 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dades\dades\CarpetesPersonals\Programacio\pinbaladmin_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dades\dades\CarpetesPersonals\Programacio\pinbaladmin\scripts\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="11760" tabRatio="584" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="501" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Instrucciones_20200502" sheetId="16" r:id="rId1"/>
+    <sheet name="Instrucciones_20211014" sheetId="16" r:id="rId1"/>
     <sheet name="Autorizacion_Procedimientos" sheetId="14" r:id="rId2"/>
     <sheet name="Tipo de procedimiento" sheetId="17" r:id="rId3"/>
     <sheet name="Servicios" sheetId="10" r:id="rId4"/>
@@ -20,49 +20,50 @@
     <sheet name="Consentimiento" sheetId="18" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="AEATNoDisponibleEnClienteLigeroCLOUD">Servicios!$B$2:$B$7</definedName>
+    <definedName name="AEAT">Servicios!$B$2:$B$7</definedName>
     <definedName name="CATASTRO">Servicios!$B$8:$B$12</definedName>
     <definedName name="CCAA">Servicios!$B$13:$B$22</definedName>
-    <definedName name="cedente">Cedente!$A$2:$A$31</definedName>
-    <definedName name="cedentes">Cedente!$A$2:$A$31</definedName>
+    <definedName name="cedente">Cedente!$A$2:$A$32</definedName>
+    <definedName name="cedentes">Cedente!$A$2:$A$32</definedName>
     <definedName name="CERVANTES">Servicios!$B$23</definedName>
-    <definedName name="CGNNOTARIADO">Servicios!$B$24:$B$27</definedName>
+    <definedName name="CGNNOTARIADO">Servicios!$B$24:$B$28</definedName>
     <definedName name="Clase_tramite">'Tipo de procedimiento'!$A$2:$A$20</definedName>
-    <definedName name="CORPME">Servicios!$C$29</definedName>
-    <definedName name="CRUE">Servicios!$B$28</definedName>
-    <definedName name="DGOJ">Servicios!$B$30:$B$37</definedName>
-    <definedName name="DGP">Servicios!$B$38:$B$40</definedName>
-    <definedName name="DGSFP">Servicios!$B$48:$B$51</definedName>
-    <definedName name="DGT">Servicios!$B$41:$B$47</definedName>
-    <definedName name="DIRECCION">Servicios!$B$48:$B$51</definedName>
-    <definedName name="EDUCACION">Servicios!$B$52:$B$63</definedName>
-    <definedName name="IGAE">Servicios!$B$70:$B$73</definedName>
-    <definedName name="IMSERSO">Servicios!$B$69</definedName>
-    <definedName name="INE">Servicios!$B$74:$B$78</definedName>
-    <definedName name="INSS">Servicios!$B$79:$B$80</definedName>
+    <definedName name="CORPME">Servicios!$C$30</definedName>
+    <definedName name="CRUE">Servicios!$B$29</definedName>
+    <definedName name="DGOJ">Servicios!$B$31:$B$38</definedName>
+    <definedName name="DGP">Servicios!$B$39:$B$41</definedName>
+    <definedName name="DGSFP">Servicios!$B$49:$B$52</definedName>
+    <definedName name="DGT">Servicios!$B$42:$B$48</definedName>
+    <definedName name="DIRECCION">Servicios!$B$49:$B$52</definedName>
+    <definedName name="EDUCACION">Servicios!$B$53:$B$64</definedName>
+    <definedName name="EELL">Servicios!$B$65:$B$66</definedName>
+    <definedName name="IGAE">Servicios!$B$73:$B$76</definedName>
+    <definedName name="IMSERSO">Servicios!$B$72</definedName>
+    <definedName name="INE">Servicios!$B$77:$B$81</definedName>
+    <definedName name="INSS">Servicios!$B$82:$B$83</definedName>
     <definedName name="INSSTarjetaSocialUniversalTSU">Servicios!#REF!</definedName>
-    <definedName name="INTERIOR">Servicios!$B$81:$B$82</definedName>
-    <definedName name="JUSTICIA">Servicios!$B$83:$B$96</definedName>
-    <definedName name="MAEC">Servicios!$B$97</definedName>
-    <definedName name="MINECO">Servicios!$B$98:$B$101</definedName>
-    <definedName name="MINHAP">Servicios!$B$102</definedName>
-    <definedName name="MITMA">Servicios!$B$64:$B$68</definedName>
-    <definedName name="MPTFP">Servicios!$B$98:$B$101</definedName>
-    <definedName name="MUFACE">Servicios!$B$103:$B$108</definedName>
-    <definedName name="NAVARRA">Servicios!$B$109:$B$110</definedName>
-    <definedName name="PAISVASCO">Servicios!$B$111:$B$113</definedName>
-    <definedName name="SANIDAD">Servicios!$B$114</definedName>
-    <definedName name="SECAD">Servicios!$B$115</definedName>
-    <definedName name="SEPBLAC">Servicios!$B$116:$B$118</definedName>
-    <definedName name="SEPE">Servicios!$B$119:$B$123</definedName>
-    <definedName name="TGSS">Servicios!$B$124:$B$128</definedName>
+    <definedName name="INTERIOR">Servicios!$B$84:$B$85</definedName>
+    <definedName name="JUSTICIA">Servicios!$B$86:$B$101</definedName>
+    <definedName name="MAEC">Servicios!$B$102</definedName>
+    <definedName name="MINECO">Servicios!$B$103:$B$106</definedName>
+    <definedName name="MINHAP">Servicios!$B$107</definedName>
+    <definedName name="MITMA">Servicios!$B$67:$B$71</definedName>
+    <definedName name="MPTFP">Servicios!$B$103:$B$106</definedName>
+    <definedName name="MUFACE">Servicios!$B$108:$B$113</definedName>
+    <definedName name="NAVARRA">Servicios!$B$114:$B$116</definedName>
+    <definedName name="PAISVASCO">Servicios!$B$117:$B$120</definedName>
+    <definedName name="SANIDAD">Servicios!$B$121</definedName>
+    <definedName name="SECAD">Servicios!$B$122</definedName>
+    <definedName name="SEPBLAC">Servicios!$B$123:$B$125</definedName>
+    <definedName name="SEPE">Servicios!$B$126:$B$130</definedName>
+    <definedName name="TGSS">Servicios!$B$131:$B$135</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="667">
   <si>
     <t>Código del Procedimiento</t>
   </si>
@@ -262,18 +263,6 @@
     <t>NIVRENTI</t>
   </si>
   <si>
-    <t>ECOT102I</t>
-  </si>
-  <si>
-    <t>ECOT103I</t>
-  </si>
-  <si>
-    <t>ECOT104I</t>
-  </si>
-  <si>
-    <t>ECOT101I</t>
-  </si>
-  <si>
     <t>SVDCTITWS02</t>
   </si>
   <si>
@@ -349,9 +338,6 @@
     <t>SVDTUWS03</t>
   </si>
   <si>
-    <t>ECOTGENI</t>
-  </si>
-  <si>
     <t>IMSERSO</t>
   </si>
   <si>
@@ -364,9 +350,6 @@
     <t>SVDSECOPA01WS01</t>
   </si>
   <si>
-    <t>Verificación de Ámbito de Residencia</t>
-  </si>
-  <si>
     <t>SVDRWS01</t>
   </si>
   <si>
@@ -464,9 +447,6 @@
   </si>
   <si>
     <t>SVDNOTSUBADMWS01</t>
-  </si>
-  <si>
-    <t>SVDPVIAEWS01</t>
   </si>
   <si>
     <t>DGSFP0002</t>
@@ -592,9 +572,6 @@
   </si>
   <si>
     <t>IGAE</t>
-  </si>
-  <si>
-    <t>AEAT - No disponible en Cliente ligero CLOUD</t>
   </si>
   <si>
     <t>DGOJ</t>
@@ -2322,24 +2299,6 @@
     <t>Certificación de titularidad catastral</t>
   </si>
   <si>
-    <t>Estar al corriente de las obligaciones tributarias genérico</t>
-  </si>
-  <si>
-    <t>Obligaciones tributarias – Residencia y trabajo</t>
-  </si>
-  <si>
-    <t>Obligaciones tributarias – Ayudas y subvenciones</t>
-  </si>
-  <si>
-    <t>Obligaciones tributarias – Ley de transportes</t>
-  </si>
-  <si>
-    <t>Obligaciones tributarias – Ley de contratos</t>
-  </si>
-  <si>
-    <t>Consulta de nivel de renta intermediado</t>
-  </si>
-  <si>
     <t>Consulta de Discapacidad para la obtención de la tarjeta de estacionamiento</t>
   </si>
   <si>
@@ -2439,12 +2398,6 @@
     <t>Consulta de Clases Pasivas de Jubilación</t>
   </si>
   <si>
-    <t>Consulta de datos de Residencia con Fecha de Última Variación Padronal</t>
-  </si>
-  <si>
-    <t>Consulta de datos de Residencia con Fecha de Última Variación Padronal por LEY (SECOPA)</t>
-  </si>
-  <si>
     <t>Prestaciones Públicas del RPSP e Incapacidad Temporal, Maternidad y Paternidad</t>
   </si>
   <si>
@@ -2532,9 +2485,6 @@
     <t>Consulta de Subsistencia de Administradores</t>
   </si>
   <si>
-    <t>Impuesto de Actividades Económicas - PAÍS VASCO</t>
-  </si>
-  <si>
     <t>Consulta de Aseguradoras y Reaseguradoras</t>
   </si>
   <si>
@@ -2769,15 +2719,6 @@
     <t>(IMSERSO) Consulta del nivel y grado de dependencia</t>
   </si>
   <si>
-    <t>(INE) Consulta de datos de residencia con fecha de última variación padronal</t>
-  </si>
-  <si>
-    <t>(INE) Consulta de datos de residencia con fecha de última variación padronal por LEY (SECOPA)</t>
-  </si>
-  <si>
-    <t>(INE) Verificación del ámbito de residencia</t>
-  </si>
-  <si>
     <t>(INSS) Consulta de las prestaciones del Registro de Prestaciones Sociales Públicas (RPSP), incapacidad temporal y maternidad</t>
   </si>
   <si>
@@ -2898,16 +2839,10 @@
     <t>(TGSS) Situación laboral en una fecha concreta</t>
   </si>
   <si>
-    <t>(Pais Vasco) Impuesto de Actividades Económicas de la Diputación Foral Vasca</t>
-  </si>
-  <si>
     <t>Consulta del histórico de residencia legal</t>
   </si>
   <si>
     <t>SVDREXTFECHAWS01</t>
-  </si>
-  <si>
-    <t>Consulta de datos de IRPF - PAÍS VASCO</t>
   </si>
   <si>
     <t>SVDPVASCOIRPFWS01</t>
@@ -2979,36 +2914,6 @@
     <t>SVDDGTTARJETAAMBIENTALWS01</t>
   </si>
   <si>
-    <t>Ayto.Madrid: Consulta de datos de Residencia con Fecha de Última Variación Padronal</t>
-  </si>
-  <si>
-    <t>(INE) Consulta de datos de residencia con fecha de última variación padronal (Ayto.Madrid)</t>
-  </si>
-  <si>
-    <t>Ayto.Madrid: Servicio de consulta de datos de convivencia actual</t>
-  </si>
-  <si>
-    <t>(INE) Servicio de consulta de datos de convivencia actual</t>
-  </si>
-  <si>
-    <t>SVDCONVIVENCIAWS01</t>
-  </si>
-  <si>
-    <t>Servicio de Consulta de los datos de una autorización de transporte</t>
-  </si>
-  <si>
-    <t>Servicio de Consulta de los datos de una licencia internacional de transporte</t>
-  </si>
-  <si>
-    <t>Servicio de Consulta de las autorizaciones de transporte de un titular</t>
-  </si>
-  <si>
-    <t>Servicio de Consulta de los títulos de competencia profesional de un titular</t>
-  </si>
-  <si>
-    <t>Servicio de Consulta de los datos de un vehículo adscrito a una autorización de transporte</t>
-  </si>
-  <si>
     <t>Consulta de defunción masiva</t>
   </si>
   <si>
@@ -3030,21 +2935,6 @@
     <t>MITMA</t>
   </si>
   <si>
-    <t>(MITMA) Servicio de Consulta de los datos de un vehículo adscrito a una autorización de transporte</t>
-  </si>
-  <si>
-    <t>(MITMA) Servicio de Consulta de los títulos de competencia profesional de un titular</t>
-  </si>
-  <si>
-    <t>(MITMA) Servicio de Consulta de las autorizaciones de transporte de un titular</t>
-  </si>
-  <si>
-    <t>(MITMA) Servicio de Consulta de los datos de una licencia internacional de transporte</t>
-  </si>
-  <si>
-    <t>(MITMA) Servicio de Consulta de los datos de una autorización de transporte</t>
-  </si>
-  <si>
     <t>MINHAP</t>
   </si>
   <si>
@@ -3063,16 +2953,229 @@
     <t>SVDPVASCODOMFISCWS01</t>
   </si>
   <si>
-    <t>Consulta de Domicilio Fiscal - PAÍS VASCO</t>
-  </si>
-  <si>
-    <t>(Pais Vasco) Consulta de Domicilio Fiscal</t>
-  </si>
-  <si>
     <t>EDUCACION</t>
   </si>
   <si>
-    <t>f</t>
+    <t>Volumen estimado</t>
+  </si>
+  <si>
+    <t>En este campo se debe informar el número de peticiones estimadas por procedimiento, el volumen será estimado en peticiones/dia siendo una estimación previa al envío de peticiones</t>
+  </si>
+  <si>
+    <t>Si el procedimiento tienen 4 servicios asociados la suma del volumen de todos los servicios dará el resultado del volumne de peticiones por procedimiento</t>
+  </si>
+  <si>
+    <t>7 Posiciones</t>
+  </si>
+  <si>
+    <t>Peticiones estimadas</t>
+  </si>
+  <si>
+    <t>Consulta de los datos de un vehículo adscrito a una autorización de transporte</t>
+  </si>
+  <si>
+    <t>(MITMA) Consulta de los datos de un vehículo adscrito a una autorización de transporte</t>
+  </si>
+  <si>
+    <t>SVDFOMENTOAUTVEHICULOWS01</t>
+  </si>
+  <si>
+    <t>Consulta de las autorizaciones de transporte de un titular</t>
+  </si>
+  <si>
+    <t>(MITMA) Consulta de las autorizaciones de transporte de un titular</t>
+  </si>
+  <si>
+    <t>SVDFOMENTOAUTTITULARWS01</t>
+  </si>
+  <si>
+    <t>(MITMA) Consulta de los datos de una autorización de transporte</t>
+  </si>
+  <si>
+    <t>Consulta de los datos de una autorización de transporte</t>
+  </si>
+  <si>
+    <t>SVDFOMENTODATOSAUTWS01</t>
+  </si>
+  <si>
+    <t>Consulta de los datos de una licencia internacional de transporte</t>
+  </si>
+  <si>
+    <t>(MITMA) Consulta de los datos de una licencia internacional de transporte</t>
+  </si>
+  <si>
+    <t>SVDFOMENTODATOSLICENCIAWS01</t>
+  </si>
+  <si>
+    <t>SVDFOMENTOTITULOSWS01</t>
+  </si>
+  <si>
+    <t>Consulta de los títulos de transporte de un titular</t>
+  </si>
+  <si>
+    <t>(MITMA) Consulta de los títulos de transporte de un titular</t>
+  </si>
+  <si>
+    <t>EELL</t>
+  </si>
+  <si>
+    <t>Consulta de datos de convivencia actual</t>
+  </si>
+  <si>
+    <t>(EELL) Consulta de datos de convivencia actual</t>
+  </si>
+  <si>
+    <t>SVDEELLCONVIVENCIAWS01</t>
+  </si>
+  <si>
+    <t>Consulta de Datos de Residencia con Fecha de la últimaVariación</t>
+  </si>
+  <si>
+    <t>(EELL) Consulta de Datos de Residencia con Fecha de la últimaVariación</t>
+  </si>
+  <si>
+    <t>SVDREELLEXTFECHAWS01</t>
+  </si>
+  <si>
+    <t>SVDINESECOPAHISTRESIDENCIACONVWS01</t>
+  </si>
+  <si>
+    <t>Consulta del histórico de residencia y convivientes (SECOPA)</t>
+  </si>
+  <si>
+    <t>(INE) Consulta del histórico de residencia y convivientes (SECOPA)</t>
+  </si>
+  <si>
+    <t>Consulta de datos de convivencia actual (SECOPA)</t>
+  </si>
+  <si>
+    <t>SVDINESECOPACONVIVENCIAACTUALWS01</t>
+  </si>
+  <si>
+    <t>(INE) Consulta de datos de convivencia actual (SECOPA)</t>
+  </si>
+  <si>
+    <t>Consulta de Datos Padronales (SECOPA)</t>
+  </si>
+  <si>
+    <t>(INE) Consulta de Datos Padronales (SECOPA)</t>
+  </si>
+  <si>
+    <t>(INE) Verificación de Datos de Residencia en un Ámbito Territorial</t>
+  </si>
+  <si>
+    <t>Verificación de Datos de Residencia en un Ámbito Territorial</t>
+  </si>
+  <si>
+    <t>(INE) Verificación y Consulta de Datos de Residencia con Fecha de la últimaVariación</t>
+  </si>
+  <si>
+    <t>Verificación y Consulta de Datos de Residencia con Fecha de la últimaVariación</t>
+  </si>
+  <si>
+    <t>ECOT101</t>
+  </si>
+  <si>
+    <t>ECOT102</t>
+  </si>
+  <si>
+    <t>ECOT103</t>
+  </si>
+  <si>
+    <t>ECOT104</t>
+  </si>
+  <si>
+    <t>ECOTGEN</t>
+  </si>
+  <si>
+    <t>ECOT101 Contratación con las Administraciones Públicas</t>
+  </si>
+  <si>
+    <t>ECOT102 Obtención de licencias de transporte</t>
+  </si>
+  <si>
+    <t>ECOT103 Solicitud de ayudas y subvenciones</t>
+  </si>
+  <si>
+    <t>ECOT104 Permisos de residencia y trabajo para extranjeros</t>
+  </si>
+  <si>
+    <t>ECOTGEN General. Estar al corriente de las obligaciones tributarias genérico</t>
+  </si>
+  <si>
+    <t>NIVRENTI Nivel de renta, bases y mínimo personal y familiar</t>
+  </si>
+  <si>
+    <t>Consulta de defunción DICIREG</t>
+  </si>
+  <si>
+    <t>(Justicia) Consulta de defunción DICIREG</t>
+  </si>
+  <si>
+    <t>SVDRRCCDEFUNCIONSWS01</t>
+  </si>
+  <si>
+    <t>Consulta de Domicilio Fiscal - HT NAVARRA</t>
+  </si>
+  <si>
+    <t>(Navarra) Consulta de Domicilio Fiscal</t>
+  </si>
+  <si>
+    <t>SVDNAVARRADOMFISCWS01</t>
+  </si>
+  <si>
+    <t>Consulta de Cesiones de Crédito</t>
+  </si>
+  <si>
+    <t>(Notarios) Consulta de Cesiones de Crédito</t>
+  </si>
+  <si>
+    <t>SVDNOTCESIONCREDITOWS01</t>
+  </si>
+  <si>
+    <t>Consulta de Datos IRPF del País Vasco</t>
+  </si>
+  <si>
+    <t>(Pais Vasco) Consulta de Datos IRPF del País Vasco</t>
+  </si>
+  <si>
+    <t>Consulta de Domicilio Fiscal de las Haciendas Forales Vascas</t>
+  </si>
+  <si>
+    <t>(Pais Vasco) Consulta de Domicilio Fiscal de las Haciendas Forales Vascas</t>
+  </si>
+  <si>
+    <t>Consulta de Empresas Relacionadas</t>
+  </si>
+  <si>
+    <t>(Pais Vasco) Consulta de Empresas Relacionadas</t>
+  </si>
+  <si>
+    <t>SVDPVASCOEMPRESASRELWS01</t>
+  </si>
+  <si>
+    <t>Consulta de Impuesto de Actividades Económicas (IAE)</t>
+  </si>
+  <si>
+    <t>(Pais Vasco) Consulta de Impuesto de Actividades Económicas (IAE)</t>
+  </si>
+  <si>
+    <t>SVDPVASCOIAEEXTWS01</t>
+  </si>
+  <si>
+    <t>Consulta de Nacimiento DICIREG</t>
+  </si>
+  <si>
+    <t>(Justicia) Consulta de nacimiento DICIREG</t>
+  </si>
+  <si>
+    <t>SVDRRCCNACIMIENTOWS01</t>
+  </si>
+  <si>
+    <t>Peticiones estimadas (día)</t>
+  </si>
+  <si>
+    <t>Volumen estimado de peticiones (mes)</t>
   </si>
 </sst>
 </file>
@@ -3306,7 +3409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -3563,6 +3666,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3573,7 +3685,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3649,19 +3761,48 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3727,12 +3868,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3801,7 +3936,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="4 Imagen" descr="*"/>
+        <xdr:cNvPr id="5" name="4 Imagen" descr="*">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
         </xdr:cNvPicPr>
@@ -3856,7 +3997,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="1 Imagen" descr="*"/>
+        <xdr:cNvPr id="8" name="1 Imagen" descr="*">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
         </xdr:cNvPicPr>
@@ -3911,7 +4058,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="2 Imagen" descr="*"/>
+        <xdr:cNvPr id="9" name="2 Imagen" descr="*">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
         </xdr:cNvPicPr>
@@ -4241,10 +4394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4257,1297 +4410,1325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="45"/>
+      <c r="A1" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="56"/>
       <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="72"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="66"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62"/>
+      <c r="B4" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="66"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
+      <c r="B5" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="66"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
+      <c r="B6" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="66"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
+      <c r="B7" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="66"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62"/>
+      <c r="B8" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="66"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+    </row>
+    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62"/>
+      <c r="B10" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="66"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="66"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
+      <c r="B13" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="66"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="62"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+    </row>
+    <row r="15" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="C15" s="72"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+    </row>
+    <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="66"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
+      <c r="B19" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" s="66"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="62"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
+      <c r="B21" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="61"/>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="54" t="s">
+      <c r="C21" s="66"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="62"/>
+      <c r="B22" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="68"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="62"/>
+      <c r="B23" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="55"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="54" t="s">
+      <c r="C23" s="68"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="62"/>
+      <c r="B24" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="55"/>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="54" t="s">
+      <c r="C24" s="68"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="62"/>
+      <c r="B25" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="55"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="54" t="s">
+      <c r="C25" s="68"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="62"/>
+      <c r="B26" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="68"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="62"/>
+      <c r="B27" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="68"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="62"/>
+      <c r="B28" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="68"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62"/>
+      <c r="B29" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="68"/>
+    </row>
+    <row r="30" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="62"/>
+      <c r="B30" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="70"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="62"/>
+      <c r="B31" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="66"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="62"/>
+      <c r="B32" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="70"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="62"/>
+      <c r="B33" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="70"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="62"/>
+      <c r="B34" s="67" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" s="68"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="62"/>
+      <c r="B35" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="68"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="62"/>
+      <c r="B36" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="68"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="62"/>
+      <c r="B37" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="C37" s="68"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="62"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="70"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="62"/>
+      <c r="B39" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="66"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="62"/>
+      <c r="B40" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" s="68"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="62"/>
+      <c r="B41" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="68"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="62"/>
+      <c r="B42" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="C6" s="55"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="55"/>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="55"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-    </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="55"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="54" t="s">
-        <v>371</v>
-      </c>
-      <c r="C12" s="55"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="C13" s="55"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-    </row>
-    <row r="15" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="C42" s="68"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="62"/>
+      <c r="B43" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="68"/>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="62"/>
+      <c r="B44" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="C44" s="68"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="62"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="70"/>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="62"/>
+      <c r="B46" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="66"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="62"/>
+      <c r="B47" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="70"/>
+    </row>
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="62"/>
+      <c r="B48" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="70"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="62"/>
+      <c r="B49" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="C49" s="70"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="62"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="70"/>
+    </row>
+    <row r="51" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="62"/>
+      <c r="B51" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="C51" s="66"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="62"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="66"/>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="62"/>
+      <c r="B53" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="C53" s="66"/>
+    </row>
+    <row r="54" spans="1:3" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="64"/>
+      <c r="B54" s="73" t="s">
+        <v>575</v>
+      </c>
+      <c r="C54" s="74"/>
+    </row>
+    <row r="55" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="C55" s="66"/>
+    </row>
+    <row r="56" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="62"/>
+      <c r="B56" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="66"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="62"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="66"/>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="62"/>
+      <c r="B58" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" s="66"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="62"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="76"/>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="62"/>
+      <c r="B60" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="C60" s="66"/>
+    </row>
+    <row r="61" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="62"/>
+      <c r="B61" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" s="66"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="62"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
+    </row>
+    <row r="63" spans="1:3" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="C63" s="72"/>
+    </row>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="62"/>
+      <c r="B64" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" s="68"/>
+    </row>
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="62"/>
+      <c r="B65" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="C65" s="68"/>
+    </row>
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="62"/>
+      <c r="B66" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" s="68"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="62"/>
+      <c r="B67" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" s="68"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="62"/>
+      <c r="B68" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="C68" s="68"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="62"/>
+      <c r="B69" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="C69" s="66"/>
+    </row>
+    <row r="70" spans="1:3" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="64"/>
+      <c r="B70" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="C70" s="54"/>
+    </row>
+    <row r="71" spans="1:3" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="B71" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="66"/>
+    </row>
+    <row r="72" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="58"/>
+      <c r="B72" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="C72" s="78"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="58"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="66"/>
+    </row>
+    <row r="74" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="58"/>
+      <c r="B74" s="65" t="s">
+        <v>364</v>
+      </c>
+      <c r="C74" s="66"/>
+    </row>
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="58"/>
+      <c r="B75" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="C75" s="66"/>
+    </row>
+    <row r="76" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="58"/>
+      <c r="B76" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="C76" s="68"/>
+    </row>
+    <row r="77" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="58"/>
+      <c r="B77" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="C77" s="68"/>
+    </row>
+    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="58"/>
+      <c r="B78" s="67" t="s">
+        <v>254</v>
+      </c>
+      <c r="C78" s="68"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="58"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="66"/>
+    </row>
+    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="58"/>
+      <c r="B80" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="C80" s="66"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="58"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="66"/>
+    </row>
+    <row r="82" spans="1:3" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="59"/>
+      <c r="B82" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="C83" s="66"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="62"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="66"/>
+    </row>
+    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="62"/>
+      <c r="B85" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="66"/>
+    </row>
+    <row r="86" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="62"/>
+      <c r="B86" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="C86" s="66"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="62"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="66"/>
+    </row>
+    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="62"/>
+      <c r="B88" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" s="66"/>
+    </row>
+    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="62"/>
+      <c r="B89" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="C89" s="68"/>
+    </row>
+    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="62"/>
+      <c r="B90" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" s="68"/>
+    </row>
+    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="62"/>
+      <c r="B91" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="C91" s="68"/>
+    </row>
+    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="62"/>
+      <c r="B92" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="C92" s="68"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="62"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="66"/>
+    </row>
+    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="62"/>
+      <c r="B94" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" s="66"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="62"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="66"/>
+    </row>
+    <row r="96" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="62"/>
+      <c r="B96" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" s="80"/>
+    </row>
+    <row r="97" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="62"/>
+      <c r="B97" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C97" s="80"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="62"/>
+      <c r="B98" s="79"/>
+      <c r="C98" s="80"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="62"/>
+      <c r="B99" s="79" t="s">
+        <v>313</v>
+      </c>
+      <c r="C99" s="80"/>
+    </row>
+    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="62"/>
+      <c r="B100" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="C100" s="82"/>
+    </row>
+    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="62"/>
+      <c r="B101" s="81" t="s">
+        <v>314</v>
+      </c>
+      <c r="C101" s="82"/>
+    </row>
+    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="62"/>
+      <c r="B102" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" s="82"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="62"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="66"/>
+    </row>
+    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="62"/>
+      <c r="B104" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="C104" s="66"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="62"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="66"/>
+    </row>
+    <row r="106" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="62"/>
+      <c r="B106" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="C106" s="66"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="62"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="66"/>
+    </row>
+    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="62"/>
+      <c r="B108" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="C108" s="66"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="62"/>
+      <c r="B109" s="65"/>
+      <c r="C109" s="66"/>
+    </row>
+    <row r="110" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="62"/>
+      <c r="B110" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="C110" s="66"/>
+    </row>
+    <row r="111" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="62"/>
+      <c r="B111" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="C111" s="68"/>
+    </row>
+    <row r="112" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="62"/>
+      <c r="B112" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="C112" s="68"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="62"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="66"/>
+    </row>
+    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="62"/>
+      <c r="B114" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="C114" s="66"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="62"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="66"/>
+    </row>
+    <row r="116" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="62"/>
+      <c r="B116" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" s="66"/>
+    </row>
+    <row r="117" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="62"/>
+      <c r="B117" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="C117" s="66"/>
+    </row>
+    <row r="118" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="C118" s="72"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="62"/>
+      <c r="B119" s="65"/>
+      <c r="C119" s="66"/>
+    </row>
+    <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="62"/>
+      <c r="B120" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="C120" s="66"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="62"/>
+      <c r="B121" s="65"/>
+      <c r="C121" s="66"/>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="64"/>
+      <c r="B122" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="C122" s="54"/>
+    </row>
+    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="C123" s="66"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="62"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="66"/>
+    </row>
+    <row r="125" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="62"/>
+      <c r="B125" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="C125" s="70"/>
+    </row>
+    <row r="126" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="62"/>
+      <c r="B126" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="C126" s="70"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="62"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="66"/>
+    </row>
+    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="62"/>
+      <c r="B128" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="C128" s="66"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="62"/>
+      <c r="B129" s="65"/>
+      <c r="C129" s="66"/>
+    </row>
+    <row r="130" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="62"/>
+      <c r="B130" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="C130" s="66"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="62"/>
+      <c r="B131" s="65"/>
+      <c r="C131" s="66"/>
+    </row>
+    <row r="132" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="62"/>
+      <c r="B132" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="C132" s="66"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="62"/>
+      <c r="B133" s="65"/>
+      <c r="C133" s="66"/>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="62"/>
+      <c r="B134" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" s="66"/>
+    </row>
+    <row r="135" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B135" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="C135" s="72"/>
+    </row>
+    <row r="136" spans="1:3" s="15" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="62"/>
+      <c r="B136" s="65"/>
+      <c r="C136" s="66"/>
+    </row>
+    <row r="137" spans="1:3" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="62"/>
+      <c r="B137" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="C137" s="66"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="62"/>
+      <c r="B138" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C138" s="66"/>
+    </row>
+    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="62"/>
+      <c r="B139" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="C139" s="66"/>
+    </row>
+    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="62"/>
+      <c r="B140" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140" s="66"/>
+    </row>
+    <row r="141" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="62"/>
+      <c r="B141" s="65"/>
+      <c r="C141" s="66"/>
+    </row>
+    <row r="142" spans="1:3" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="62"/>
+      <c r="B142" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="C142" s="66"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="62"/>
+      <c r="B143" s="65"/>
+      <c r="C143" s="66"/>
+    </row>
+    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="62"/>
+      <c r="B144" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="C144" s="66"/>
+    </row>
+    <row r="145" spans="1:3" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="64"/>
+      <c r="B145" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="C145" s="54"/>
+    </row>
+    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B146" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="C146" s="66"/>
+    </row>
+    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="62"/>
+      <c r="B147" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="C147" s="66"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="62"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="66"/>
+    </row>
+    <row r="149" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="62"/>
+      <c r="B149" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="C149" s="66"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="62"/>
+      <c r="B150" s="65"/>
+      <c r="C150" s="66"/>
+    </row>
+    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="62"/>
+      <c r="B151" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="C151" s="66"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="62"/>
+      <c r="B152" s="65"/>
+      <c r="C152" s="66"/>
+    </row>
+    <row r="153" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="62"/>
+      <c r="B153" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="C153" s="66"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="62"/>
+      <c r="B154" s="65"/>
+      <c r="C154" s="66"/>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="62"/>
+      <c r="B155" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" s="66"/>
+    </row>
+    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="B156" s="71" t="s">
+        <v>329</v>
+      </c>
+      <c r="C156" s="72"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="62"/>
+      <c r="B157" s="65"/>
+      <c r="C157" s="66"/>
+    </row>
+    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="62"/>
+      <c r="B158" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="C158" s="66"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="62"/>
+      <c r="B159" s="83"/>
+      <c r="C159" s="84"/>
+    </row>
+    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="62"/>
+      <c r="B160" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="C160" s="66"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A161" s="62"/>
+      <c r="B161" s="65"/>
+      <c r="C161" s="66"/>
+    </row>
+    <row r="162" spans="1:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="64"/>
+      <c r="B162" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C162" s="54"/>
+    </row>
+    <row r="163" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B163" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="C163" s="66"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A164" s="62"/>
+      <c r="B164" s="65"/>
+      <c r="C164" s="66"/>
+    </row>
+    <row r="165" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="62"/>
+      <c r="B165" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="C165" s="66"/>
+    </row>
+    <row r="166" spans="1:15" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="64"/>
+      <c r="B166" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="C166" s="54"/>
+    </row>
+    <row r="167" spans="1:15" s="24" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="51" t="s">
+        <v>593</v>
+      </c>
+      <c r="B167" s="42" t="s">
+        <v>594</v>
+      </c>
+      <c r="C167" s="42"/>
+    </row>
+    <row r="168" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="52"/>
+      <c r="B168" s="53" t="s">
+        <v>595</v>
+      </c>
+      <c r="C168" s="54"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A170" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B170" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D170" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E170" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F170" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G170" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="H170" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I170" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J170" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K170" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L170" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M170" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N170" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O170" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A171" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B171" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C171" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D171" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E171" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F171" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G171" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H171" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I171" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J171" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K171" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L171" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M171" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N171" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O171" s="25" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B172" s="61"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="24"/>
+      <c r="I172" s="24"/>
+      <c r="J172" s="24"/>
+      <c r="K172" s="24"/>
+      <c r="L172" s="24"/>
+      <c r="M172" s="24"/>
+      <c r="N172" s="24"/>
+    </row>
+    <row r="173" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="61"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-    </row>
-    <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="C17" s="55"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="54" t="s">
-        <v>376</v>
-      </c>
-      <c r="C19" s="55"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="55"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="56" t="s">
-        <v>298</v>
-      </c>
-      <c r="C22" s="57"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="C23" s="57"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="C24" s="57"/>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="C25" s="57"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26" s="57"/>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="C27" s="57"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="C28" s="57"/>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" s="57"/>
-    </row>
-    <row r="30" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="C30" s="59"/>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="55"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="C32" s="59"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="59"/>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="C34" s="57"/>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="C35" s="57"/>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="C36" s="57"/>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="C37" s="57"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="59"/>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="C39" s="55"/>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="C40" s="57"/>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="57"/>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="56" t="s">
-        <v>304</v>
-      </c>
-      <c r="C42" s="57"/>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="C43" s="57"/>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="56" t="s">
+      <c r="C173" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D173" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E173" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F173" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="H173" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I173" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J173" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K173" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L173" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M173" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="N173" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O173" s="28" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B174" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C174" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D174" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E174" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F174" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G174" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="C44" s="57"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="59"/>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="C46" s="55"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="C47" s="59"/>
-    </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="59"/>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="C49" s="59"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="59"/>
-    </row>
-    <row r="51" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="54" t="s">
-        <v>344</v>
-      </c>
-      <c r="C51" s="55"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="C53" s="55"/>
-    </row>
-    <row r="54" spans="1:3" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="53"/>
-      <c r="B54" s="62" t="s">
-        <v>597</v>
-      </c>
-      <c r="C54" s="63"/>
-    </row>
-    <row r="55" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="C55" s="55"/>
-    </row>
-    <row r="56" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="54" t="s">
-        <v>255</v>
-      </c>
-      <c r="C56" s="55"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="C58" s="55"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="65"/>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="54" t="s">
-        <v>309</v>
-      </c>
-      <c r="C60" s="55"/>
-    </row>
-    <row r="61" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="55"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-    </row>
-    <row r="63" spans="1:3" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="C63" s="61"/>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="C64" s="57"/>
-    </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="C65" s="57"/>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="56" t="s">
-        <v>257</v>
-      </c>
-      <c r="C66" s="57"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
-      <c r="B67" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="C67" s="57"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="C68" s="57"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="54" t="s">
-        <v>370</v>
-      </c>
-      <c r="C69" s="55"/>
-    </row>
-    <row r="70" spans="1:3" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="53"/>
-      <c r="B70" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="C70" s="67"/>
-    </row>
-    <row r="71" spans="1:3" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="46" t="s">
-        <v>375</v>
-      </c>
-      <c r="B71" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="C71" s="55"/>
-    </row>
-    <row r="72" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
-      <c r="B72" s="68" t="s">
-        <v>346</v>
-      </c>
-      <c r="C72" s="69"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="55"/>
-    </row>
-    <row r="74" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
-      <c r="B74" s="54" t="s">
-        <v>372</v>
-      </c>
-      <c r="C74" s="55"/>
-    </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
-      <c r="B75" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="C75" s="55"/>
-    </row>
-    <row r="76" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
-      <c r="B76" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="C76" s="57"/>
-    </row>
-    <row r="77" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
-      <c r="B77" s="56" t="s">
-        <v>261</v>
-      </c>
-      <c r="C77" s="57"/>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
-      <c r="B78" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="C78" s="57"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="55"/>
-    </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="54" t="s">
-        <v>314</v>
-      </c>
-      <c r="C80" s="55"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="55"/>
-    </row>
-    <row r="82" spans="1:3" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="48"/>
-      <c r="B82" s="66" t="s">
-        <v>263</v>
-      </c>
-      <c r="C82" s="67"/>
-    </row>
-    <row r="83" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B83" s="54" t="s">
-        <v>315</v>
-      </c>
-      <c r="C83" s="55"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="55"/>
-    </row>
-    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
-      <c r="B85" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="C85" s="55"/>
-    </row>
-    <row r="86" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="54" t="s">
-        <v>316</v>
-      </c>
-      <c r="C86" s="55"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="55"/>
-    </row>
-    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="55"/>
-    </row>
-    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
-      <c r="B89" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="C89" s="57"/>
-    </row>
-    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="56" t="s">
-        <v>266</v>
-      </c>
-      <c r="C90" s="57"/>
-    </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="C91" s="57"/>
-    </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="56" t="s">
-        <v>319</v>
-      </c>
-      <c r="C92" s="57"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
-      <c r="B93" s="54"/>
-      <c r="C93" s="55"/>
-    </row>
-    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
-      <c r="B94" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="C94" s="55"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="B95" s="54"/>
-      <c r="C95" s="55"/>
-    </row>
-    <row r="96" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="C96" s="71"/>
-    </row>
-    <row r="97" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
-      <c r="B97" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="C97" s="71"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
-      <c r="B98" s="70"/>
-      <c r="C98" s="71"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
-      <c r="B99" s="70" t="s">
-        <v>321</v>
-      </c>
-      <c r="C99" s="71"/>
-    </row>
-    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
-      <c r="B100" s="72" t="s">
-        <v>269</v>
-      </c>
-      <c r="C100" s="73"/>
-    </row>
-    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="51"/>
-      <c r="B101" s="72" t="s">
-        <v>322</v>
-      </c>
-      <c r="C101" s="73"/>
-    </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="51"/>
-      <c r="B102" s="72" t="s">
-        <v>270</v>
-      </c>
-      <c r="C102" s="73"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="51"/>
-      <c r="B103" s="54"/>
-      <c r="C103" s="55"/>
-    </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="51"/>
-      <c r="B104" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="C104" s="55"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="51"/>
-      <c r="B105" s="54"/>
-      <c r="C105" s="55"/>
-    </row>
-    <row r="106" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="51"/>
-      <c r="B106" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="C106" s="55"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="51"/>
-      <c r="B107" s="54"/>
-      <c r="C107" s="55"/>
-    </row>
-    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="51"/>
-      <c r="B108" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C108" s="55"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="51"/>
-      <c r="B109" s="54"/>
-      <c r="C109" s="55"/>
-    </row>
-    <row r="110" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="51"/>
-      <c r="B110" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="C110" s="55"/>
-    </row>
-    <row r="111" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="51"/>
-      <c r="B111" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="C111" s="57"/>
-    </row>
-    <row r="112" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="51"/>
-      <c r="B112" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="C112" s="57"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="51"/>
-      <c r="B113" s="54"/>
-      <c r="C113" s="55"/>
-    </row>
-    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="51"/>
-      <c r="B114" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="C114" s="55"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="51"/>
-      <c r="B115" s="54"/>
-      <c r="C115" s="55"/>
-    </row>
-    <row r="116" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="51"/>
-      <c r="B116" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="C116" s="55"/>
-    </row>
-    <row r="117" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="51"/>
-      <c r="B117" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="C117" s="55"/>
-    </row>
-    <row r="118" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B118" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="C118" s="61"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="51"/>
-      <c r="B119" s="54"/>
-      <c r="C119" s="55"/>
-    </row>
-    <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="51"/>
-      <c r="B120" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="C120" s="55"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="51"/>
-      <c r="B121" s="54"/>
-      <c r="C121" s="55"/>
-    </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="53"/>
-      <c r="B122" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="C122" s="67"/>
-    </row>
-    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="C123" s="55"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="51"/>
-      <c r="B124" s="54"/>
-      <c r="C124" s="55"/>
-    </row>
-    <row r="125" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="51"/>
-      <c r="B125" s="58" t="s">
-        <v>373</v>
-      </c>
-      <c r="C125" s="59"/>
-    </row>
-    <row r="126" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="51"/>
-      <c r="B126" s="58" t="s">
-        <v>328</v>
-      </c>
-      <c r="C126" s="59"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="51"/>
-      <c r="B127" s="54"/>
-      <c r="C127" s="55"/>
-    </row>
-    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="51"/>
-      <c r="B128" s="54" t="s">
-        <v>280</v>
-      </c>
-      <c r="C128" s="55"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="51"/>
-      <c r="B129" s="54"/>
-      <c r="C129" s="55"/>
-    </row>
-    <row r="130" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="51"/>
-      <c r="B130" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="C130" s="55"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="51"/>
-      <c r="B131" s="54"/>
-      <c r="C131" s="55"/>
-    </row>
-    <row r="132" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="51"/>
-      <c r="B132" s="54" t="s">
-        <v>329</v>
-      </c>
-      <c r="C132" s="55"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="51"/>
-      <c r="B133" s="54"/>
-      <c r="C133" s="55"/>
-    </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="51"/>
-      <c r="B134" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="C134" s="55"/>
-    </row>
-    <row r="135" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="B135" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="C135" s="61"/>
-    </row>
-    <row r="136" spans="1:3" s="15" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="51"/>
-      <c r="B136" s="54"/>
-      <c r="C136" s="55"/>
-    </row>
-    <row r="137" spans="1:3" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="51"/>
-      <c r="B137" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="C137" s="55"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="51"/>
-      <c r="B138" s="54" t="s">
-        <v>351</v>
-      </c>
-      <c r="C138" s="55"/>
-    </row>
-    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="51"/>
-      <c r="B139" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="C139" s="55"/>
-    </row>
-    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="51"/>
-      <c r="B140" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="C140" s="55"/>
-    </row>
-    <row r="141" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="51"/>
-      <c r="B141" s="54"/>
-      <c r="C141" s="55"/>
-    </row>
-    <row r="142" spans="1:3" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="51"/>
-      <c r="B142" s="54" t="s">
-        <v>350</v>
-      </c>
-      <c r="C142" s="55"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="51"/>
-      <c r="B143" s="54"/>
-      <c r="C143" s="55"/>
-    </row>
-    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="51"/>
-      <c r="B144" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="C144" s="55"/>
-    </row>
-    <row r="145" spans="1:3" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="53"/>
-      <c r="B145" s="66" t="s">
+      <c r="H174" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I174" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="C145" s="67"/>
-    </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B146" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="C146" s="55"/>
-    </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="51"/>
-      <c r="B147" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="C147" s="55"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="51"/>
-      <c r="B148" s="54"/>
-      <c r="C148" s="55"/>
-    </row>
-    <row r="149" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="51"/>
-      <c r="B149" s="54" t="s">
-        <v>333</v>
-      </c>
-      <c r="C149" s="55"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="51"/>
-      <c r="B150" s="54"/>
-      <c r="C150" s="55"/>
-    </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="51"/>
-      <c r="B151" s="54" t="s">
-        <v>334</v>
-      </c>
-      <c r="C151" s="55"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="51"/>
-      <c r="B152" s="54"/>
-      <c r="C152" s="55"/>
-    </row>
-    <row r="153" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="51"/>
-      <c r="B153" s="54" t="s">
+      <c r="J174" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K174" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L174" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C153" s="55"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="51"/>
-      <c r="B154" s="54"/>
-      <c r="C154" s="55"/>
-    </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="51"/>
-      <c r="B155" s="54" t="s">
-        <v>341</v>
-      </c>
-      <c r="C155" s="55"/>
-    </row>
-    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="B156" s="60" t="s">
-        <v>337</v>
-      </c>
-      <c r="C156" s="61"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="51"/>
-      <c r="B157" s="54"/>
-      <c r="C157" s="55"/>
-    </row>
-    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="51"/>
-      <c r="B158" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="C158" s="55"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="51"/>
-      <c r="B159" s="74"/>
-      <c r="C159" s="75"/>
-    </row>
-    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="51"/>
-      <c r="B160" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="C160" s="55"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="51"/>
-      <c r="B161" s="54"/>
-      <c r="C161" s="55"/>
-    </row>
-    <row r="162" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="53"/>
-      <c r="B162" s="66" t="s">
-        <v>288</v>
-      </c>
-      <c r="C162" s="67"/>
-    </row>
-    <row r="163" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B163" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="C163" s="55"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="51"/>
-      <c r="B164" s="54"/>
-      <c r="C164" s="55"/>
-    </row>
-    <row r="165" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="51"/>
-      <c r="B165" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="C165" s="55"/>
-    </row>
-    <row r="166" spans="1:14" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="53"/>
-      <c r="B166" s="66" t="s">
-        <v>290</v>
-      </c>
-      <c r="C166" s="67"/>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B169" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C169" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D169" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="E169" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F169" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G169" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="H169" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I169" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J169" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K169" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="L169" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="M169" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N169" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B170" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C170" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D170" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E170" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F170" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G170" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H170" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I170" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J170" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K170" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="L170" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M170" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="N170" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="B171" s="50"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24"/>
-      <c r="H171" s="24"/>
-      <c r="I171" s="24"/>
-      <c r="J171" s="24"/>
-      <c r="K171" s="24"/>
-      <c r="L171" s="24"/>
-      <c r="M171" s="24"/>
-      <c r="N171" s="24"/>
-    </row>
-    <row r="172" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B172" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D172" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E172" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F172" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G172" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="H172" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="I172" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="J172" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K172" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="L172" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="M172" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="N172" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B173" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="C173" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D173" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E173" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F173" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="H173" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="I173" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="J173" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K173" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="L173" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="M173" s="30" t="s">
+      <c r="M174" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="N173" s="33" t="s">
+      <c r="N174" s="30" t="s">
         <v>56</v>
       </c>
+      <c r="O174" s="43">
+        <v>30000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="179">
+  <mergeCells count="181">
     <mergeCell ref="B165:C165"/>
     <mergeCell ref="B166:C166"/>
     <mergeCell ref="B136:C136"/>
@@ -5669,6 +5850,8 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
@@ -5679,6 +5862,8 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A146:A155"/>
     <mergeCell ref="A156:A162"/>
@@ -5701,11 +5886,11 @@
     <mergeCell ref="A63:A70"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B168:C168"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A71:A82"/>
-    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
     <mergeCell ref="A83:A117"/>
     <mergeCell ref="A118:A122"/>
     <mergeCell ref="A123:A134"/>
@@ -5725,11 +5910,9 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B50:C50"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J173" r:id="rId1"/>
+    <hyperlink ref="J174" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -5740,12 +5923,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5761,20 +5944,22 @@
     <col min="12" max="12" width="28.140625" customWidth="1"/>
     <col min="13" max="13" width="27.28515625" customWidth="1"/>
     <col min="14" max="14" width="40.85546875" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" style="48" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>46</v>
@@ -5782,60 +5967,61 @@
       <c r="F1" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="O3" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="P3" s="49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -5870,7 +6056,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>39</v>
@@ -5878,8 +6064,14 @@
       <c r="N4" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="49" t="s">
+        <v>596</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5896,7 +6088,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>3</v>
@@ -5908,23 +6100,29 @@
         <v>5</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+        <v>156</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -5938,9 +6136,17 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="O7" s="46" t="str">
+        <f>IF(LEN(A7)=0,"","30")</f>
+        <v/>
+      </c>
+      <c r="P7" s="46" t="str">
+        <f>IF(LEN(A7)=0,"","300")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -5954,9 +6160,17 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="O8" s="46" t="str">
+        <f t="shared" ref="O8:O71" si="0">IF(LEN(A8)=0,"","30")</f>
+        <v/>
+      </c>
+      <c r="P8" s="46" t="str">
+        <f t="shared" ref="P8:P71" si="1">IF(LEN(A8)=0,"","300")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -5970,9 +6184,17 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="O9" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P9" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -5986,9 +6208,17 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="O10" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P10" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -6002,9 +6232,17 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="O11" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P11" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -6018,9 +6256,17 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="O12" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P12" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -6034,9 +6280,17 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="O13" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P13" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -6050,9 +6304,17 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="O14" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P14" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -6066,9 +6328,17 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="O15" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P15" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -6082,9 +6352,17 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="O16" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P16" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -6098,9 +6376,17 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="O17" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P17" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -6114,9 +6400,17 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="O18" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P18" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -6130,9 +6424,17 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="O19" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P19" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -6146,9 +6448,17 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="O20" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P20" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -6162,9 +6472,17 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="O21" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P21" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -6178,9 +6496,17 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="O22" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P22" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -6194,9 +6520,17 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="O23" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P23" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -6210,9 +6544,17 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="O24" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P24" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -6226,9 +6568,17 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="O25" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P25" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -6242,9 +6592,17 @@
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="O26" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P26" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -6258,9 +6616,17 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="O27" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P27" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -6274,9 +6640,17 @@
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="O28" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P28" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -6290,9 +6664,17 @@
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="O29" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P29" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -6306,9 +6688,17 @@
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="O30" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P30" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -6322,9 +6712,17 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="O31" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P31" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6338,9 +6736,17 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="O32" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P32" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -6354,9 +6760,17 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="O33" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P33" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -6370,9 +6784,17 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="O34" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P34" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -6386,9 +6808,17 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="O35" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P35" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -6402,9 +6832,17 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="O36" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P36" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -6418,9 +6856,17 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="O37" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P37" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -6434,9 +6880,17 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="O38" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P38" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -6450,9 +6904,17 @@
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+      <c r="O39" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P39" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -6466,9 +6928,17 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="O40" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P40" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -6482,9 +6952,17 @@
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+      <c r="O41" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P41" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -6498,9 +6976,17 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="O42" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P42" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -6514,9 +7000,17 @@
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="O43" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P43" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -6530,9 +7024,17 @@
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="O44" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P44" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -6546,9 +7048,17 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="O45" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P45" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="46"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -6562,9 +7072,17 @@
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="O46" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P46" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -6578,9 +7096,17 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="O47" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P47" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -6594,9 +7120,17 @@
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="O48" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P48" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="46"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -6610,9 +7144,17 @@
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
+      <c r="O49" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P49" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="46"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -6626,9 +7168,17 @@
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="O50" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P50" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="46"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -6642,9 +7192,17 @@
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="O51" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P51" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="46"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -6658,9 +7216,17 @@
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
+      <c r="O52" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P52" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="46"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -6674,9 +7240,17 @@
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
+      <c r="O53" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P53" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="46"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -6690,9 +7264,17 @@
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+      <c r="O54" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P54" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="46"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -6706,9 +7288,17 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
+      <c r="O55" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P55" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="46"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -6722,9 +7312,17 @@
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
+      <c r="O56" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P56" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="46"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -6738,9 +7336,17 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
+      <c r="O57" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P57" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="46"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -6754,9 +7360,17 @@
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
+      <c r="O58" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P58" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="46"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -6770,9 +7384,17 @@
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
+      <c r="O59" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P59" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="46"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -6786,9 +7408,17 @@
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
+      <c r="O60" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P60" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="46"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -6802,9 +7432,17 @@
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
+      <c r="O61" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P61" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="46"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -6818,9 +7456,17 @@
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
+      <c r="O62" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P62" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="46"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -6834,9 +7480,17 @@
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
+      <c r="O63" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P63" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="46"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -6850,9 +7504,17 @@
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
+      <c r="O64" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P64" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="46"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -6866,9 +7528,17 @@
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="O65" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P65" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="46"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -6882,9 +7552,17 @@
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
+      <c r="O66" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P66" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="46"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -6898,9 +7576,17 @@
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
+      <c r="O67" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P67" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="46"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -6914,9 +7600,17 @@
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
+      <c r="O68" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P68" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="46"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -6930,9 +7624,17 @@
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
+      <c r="O69" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P69" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="46"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -6946,9 +7648,17 @@
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
+      <c r="O70" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P70" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="46"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -6962,9 +7672,17 @@
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
+      <c r="O71" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P71" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="46"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -6978,9 +7696,17 @@
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
+      <c r="O72" s="46" t="str">
+        <f t="shared" ref="O72:O78" si="2">IF(LEN(A72)=0,"","30")</f>
+        <v/>
+      </c>
+      <c r="P72" s="46" t="str">
+        <f t="shared" ref="P72:P78" si="3">IF(LEN(A72)=0,"","300")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="46"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -6994,9 +7720,17 @@
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
+      <c r="O73" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P73" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="46"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -7010,9 +7744,17 @@
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
+      <c r="O74" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P74" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="46"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -7026,9 +7768,17 @@
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
+      <c r="O75" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P75" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="46"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -7042,9 +7792,17 @@
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
+      <c r="O76" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P76" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="46"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -7058,9 +7816,17 @@
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
+      <c r="O77" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P77" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="46"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -7074,52 +7840,66 @@
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
-    </row>
-    <row r="79" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P78" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="O79" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="P79" s="49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>34</v>
       </c>
@@ -7154,13 +7934,19 @@
         <v>35</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="8" t="s">
         <v>39</v>
+      </c>
+      <c r="O80" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="P80" s="49" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -7172,14 +7958,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D78">
       <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(C7," ",""),"-",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:N78">
-      <formula1>"SI,NO"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F78">
       <formula1>Clase_tramite</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
       <formula1>cedente</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:N78">
+      <formula1>"SI,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7189,7 +7975,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>IF(C7="AEAT - No disponible en Cliente ligero CLOUD",Consentimiento!$A$2:$A$3,(IF(C7="SEPBLAC",Consentimiento!$A$3,Consentimiento!$A$3:$A$4)))</xm:f>
+            <xm:f>IF(C7="AEAT",Consentimiento!$A$2:$A$3,(IF(C7="SEPBLAC",Consentimiento!$A$3,Consentimiento!$A$3:$A$4)))</xm:f>
           </x14:formula1>
           <xm:sqref>G7:G78</xm:sqref>
         </x14:dataValidation>
@@ -7203,8 +7989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7215,7 +8001,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -7223,10 +8009,10 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7234,7 +8020,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7258,7 +8044,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7266,15 +8052,15 @@
         <v>16</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7282,7 +8068,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7290,7 +8076,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7298,7 +8084,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7306,7 +8092,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7314,7 +8100,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7322,7 +8108,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7338,7 +8124,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7346,7 +8132,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7354,7 +8140,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7362,7 +8148,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7370,7 +8156,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -7381,18 +8167,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="B83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.42578125" customWidth="1"/>
+    <col min="2" max="2" width="99.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="114.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -7410,1781 +8196,1889 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>640</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>641</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="15" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>649</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D35" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="34" t="s">
+    </row>
+    <row r="36" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A39" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="D7" s="34" t="s">
+      <c r="C42" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>576</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>598</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>605</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>604</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>608</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>628</v>
+      </c>
+      <c r="D77" s="40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>397</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>388</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>444</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>495</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
-        <v>495</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>495</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="9" t="s">
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>631</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="D78" s="40" t="s">
         <v>572</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
-        <v>495</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>468</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>406</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>592</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>420</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>421</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>422</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>423</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>598</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
-        <v>496</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
-        <v>496</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
-        <v>496</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
-        <v>496</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="39" t="s">
-        <v>617</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>606</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>622</v>
-      </c>
-      <c r="D64" s="34"/>
-    </row>
-    <row r="65" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
-        <v>617</v>
-      </c>
-      <c r="B65" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>621</v>
-      </c>
-      <c r="D65" s="34"/>
-    </row>
-    <row r="66" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
-        <v>617</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>608</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>620</v>
-      </c>
-      <c r="D66" s="34"/>
-    </row>
-    <row r="67" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
-        <v>617</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>609</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>619</v>
-      </c>
-      <c r="D67" s="34"/>
-    </row>
-    <row r="68" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
-        <v>617</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>610</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>618</v>
-      </c>
-      <c r="D68" s="34"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="D74" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="34" t="s">
-        <v>439</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>603</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="D78" s="34" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B79" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="C79" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="D79" s="40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>621</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>622</v>
+      </c>
+      <c r="D80" s="40" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>625</v>
+      </c>
+      <c r="D81" s="40" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>643</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D97" s="34" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B98" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D99" s="34" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="D79" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="34" t="s">
+      <c r="C100" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="D80" s="34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="B81" s="34" t="s">
+      <c r="C101" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D101" s="34" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="D81" s="34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="B82" s="34" t="s">
+      <c r="C102" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="B103" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="D82" s="34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B83" s="34" t="s">
+      <c r="C103" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="D109" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C110" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D110" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D113" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>646</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="D116" s="33" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="D118" s="33" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>659</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="D83" s="34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B84" s="34" t="s">
-        <v>446</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="D84" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B85" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="D85" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="34" t="s">
-        <v>611</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="D86" s="34" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B87" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D87" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88" s="34" t="s">
-        <v>449</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D88" s="34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="34" t="s">
-        <v>450</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D89" s="34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B90" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D90" s="34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B91" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="C91" s="9" t="s">
+      <c r="D123" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="D91" s="36" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B92" s="35" t="s">
-        <v>453</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="D92" s="35" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B93" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94" s="35" t="s">
-        <v>455</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="D94" s="35" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B95" s="36" t="s">
+      <c r="D125" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="C95" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="D95" s="36" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B96" s="35" t="s">
+      <c r="C126" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B127" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="D96" s="35" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B97" s="34" t="s">
+      <c r="C127" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B128" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C128" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B129" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="D97" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="B98" s="34" t="s">
-        <v>459</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D98" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="B99" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="D99" s="34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="B100" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="D100" s="34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="B101" s="34" t="s">
+      <c r="D129" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B130" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="D101" s="34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="B102" s="34" t="s">
-        <v>614</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="D102" s="34" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B103" s="34" t="s">
+      <c r="C130" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="D103" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B104" s="34" t="s">
+      <c r="C133" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="D104" s="34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B105" s="34" t="s">
+      <c r="C134" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="D134" s="33" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="D105" s="34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B106" s="34" t="s">
-        <v>464</v>
-      </c>
-      <c r="C106" s="9" t="s">
+      <c r="C135" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="D106" s="34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B107" s="34" t="s">
-        <v>465</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="D107" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B108" s="34" t="s">
-        <v>466</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="D108" s="34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B109" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="D109" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B110" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="D110" s="34" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B111" s="34" t="s">
-        <v>469</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="D111" s="34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B112" s="34" t="s">
-        <v>594</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="D112" s="34" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B113" s="34" t="s">
-        <v>629</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="D113" s="34" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="39" t="s">
-        <v>381</v>
-      </c>
-      <c r="B114" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D114" s="34" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B115" s="34" t="s">
-        <v>472</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="D115" s="34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B116" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="D116" s="34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B117" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="D117" s="34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B118" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="D118" s="34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B119" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="D119" s="34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B120" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="D120" s="34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B121" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="D121" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B122" s="34" t="s">
-        <v>476</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="D122" s="34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B123" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="D123" s="34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B124" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="D124" s="34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B125" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="D125" s="34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B126" s="34" t="s">
-        <v>478</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="D126" s="34" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B127" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="D127" s="34" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B128" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="D128" s="34" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="16"/>
-    </row>
-    <row r="131" spans="1:1" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="16"/>
-    </row>
-    <row r="132" spans="1:1" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="16"/>
+      <c r="D135" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
+    </row>
+    <row r="138" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="16"/>
+    </row>
+    <row r="139" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="16"/>
     </row>
   </sheetData>
   <dataConsolidate function="stdDev"/>
@@ -9196,10 +10090,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:BC38"/>
+  <dimension ref="A1:BC39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9207,8 +10101,8 @@
     <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:55" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>58</v>
       </c>
       <c r="BA1" s="4"/>
@@ -9217,9 +10111,9 @@
       </c>
       <c r="BC1" s="4"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="BA2" s="24"/>
       <c r="BB2" s="24"/>
@@ -9227,7 +10121,7 @@
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="BA3" s="5"/>
       <c r="BB3" s="5" t="s">
@@ -9237,7 +10131,7 @@
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="BA4" s="5"/>
       <c r="BB4" s="5" t="s">
@@ -9245,30 +10139,30 @@
       </c>
       <c r="BC4" s="5"/>
     </row>
-    <row r="5" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" s="24" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
     </row>
-    <row r="6" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>495</v>
+    <row r="6" spans="1:55" s="15" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>478</v>
       </c>
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="BB8" t="s">
         <v>23</v>
@@ -9276,7 +10170,7 @@
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="BA9" s="4"/>
       <c r="BB9" s="4" t="s">
@@ -9284,171 +10178,176 @@
       </c>
       <c r="BC9" s="4"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>631</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" s="24" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB17" t="s">
+      <c r="BB18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:54" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" s="15" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BB20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB20" t="s">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="BB21" t="s">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="BB22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="BB22" t="s">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="BB23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>17</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="BB25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="BB26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>381</v>
+        <v>206</v>
       </c>
       <c r="BB27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>191</v>
+        <v>373</v>
       </c>
       <c r="BB28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="BB29" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="BB30" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="BB31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="BB32" t="s">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="BB33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="BB33" t="s">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-    </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="C38" s="15"/>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C39" s="15"/>
     </row>
   </sheetData>
   <sortState ref="A2:A31">
@@ -9464,7 +10363,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9472,24 +10371,24 @@
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
